--- a/Documentation/Documents/SQL Generator/Data Initial/Master - Institution.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master - Institution.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="2" r:id="rId1"/>
     <sheet name="RAW" sheetId="1" r:id="rId2"/>
-    <sheet name="SEED - TblCustomer" sheetId="6" r:id="rId3"/>
-    <sheet name="SEED - TblInstitutionBranch" sheetId="4" r:id="rId4"/>
-    <sheet name="SEED - TblInstitution" sheetId="3" r:id="rId5"/>
+    <sheet name="SEED - TblInstitution" sheetId="3" r:id="rId3"/>
+    <sheet name="SEED - TblCustomer" sheetId="6" r:id="rId4"/>
+    <sheet name="SEED - TblInstitutionBranch" sheetId="4" r:id="rId5"/>
     <sheet name="TblInstitution" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -28,8 +28,93 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zheta</author>
+  </authors>
+  <commentList>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>zheta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ESA
+EMT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>zheta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PLNJB
+PLNSM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>zheta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INTEL
+TELKO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="603">
   <si>
     <t>ABHIMATA CITRA ABADI</t>
   </si>
@@ -1485,15 +1570,9 @@
     <t>Pondok Pinang Center Blok A 8 - 12, Jl. Ciputat Raya Jakarta Selatan - DKI Jakarta</t>
   </si>
   <si>
-    <t>Taman Pegangsaan Indah, Blok A No. 3-5_x000D_, Jl. Pegangsaan Dua, Jakarta Utara</t>
-  </si>
-  <si>
     <t>Komplek Pertokoan  Mangga Dua Blok A7 No. 18, Jl. Jagir Wonokromo 100, Surabaya</t>
   </si>
   <si>
-    <t>Office 99 Gedung Educenter, Jl. Sekolah Foresta, No. 8, BSD_x000D_ Tangerang-Banten</t>
-  </si>
-  <si>
     <t>DKI Jakarta</t>
   </si>
   <si>
@@ -1524,9 +1603,6 @@
     <t>Jln. Engku Putri No. 3 Batam Center Batam</t>
   </si>
   <si>
-    <t>Menara Cakrawala Lt. 08_x000D_ JL. MH Thamrin No. 9 _x000D_ Jakarta Pusat</t>
-  </si>
-  <si>
     <t>Menara MTH Lantai 16 JL. MT HARYONO KAV. 23 JAKARTA</t>
   </si>
   <si>
@@ -1849,13 +1925,25 @@
   </si>
   <si>
     <t>CusKode</t>
+  </si>
+  <si>
+    <t>Taman Pegangsaan Indah, Blok A No. 3-5, Jl. Pegangsaan Dua, Jakarta Utara</t>
+  </si>
+  <si>
+    <t>Office 99 Gedung Educenter, Jl. Sekolah Foresta, No. 8, BSD Tangerang-Banten</t>
+  </si>
+  <si>
+    <t>Menara Cakrawala Lt. 08, Jl. MH Thamrin No. 9 Jakarta Pusat</t>
+  </si>
+  <si>
+    <t>Pertamina Geothermal Energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1874,11 +1962,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1901,7 +2009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1909,8 +2017,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2279,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,2203 +5097,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
-        <v>124000000000002</v>
-      </c>
-      <c r="C2" t="str">
-        <f>'SEED - TblInstitution'!D3</f>
-        <v>IMD</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblCustomer_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID,  ", IF(EXACT(B2, ""), "null", B2), "::bigint, ", IF(EXACT(A2, ""), "null", "'"&amp;A2&amp;"'"), "::varchar); ")</f>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000002::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>124000000000005</v>
-      </c>
-      <c r="C3" t="str">
-        <f>'SEED - TblInstitution'!D6</f>
-        <v>ACA</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E54" si="0">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblCustomer_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID,  ", IF(EXACT(B3, ""), "null", B3), "::bigint, ", IF(EXACT(A3, ""), "null", "'"&amp;A3&amp;"'"), "::varchar); ")</f>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000005::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>124000000000006</v>
-      </c>
-      <c r="C4" t="str">
-        <f>'SEED - TblInstitution'!D7</f>
-        <v>ABI</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000006::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>124000000000007</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'SEED - TblInstitution'!D8</f>
-        <v>LTA</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000007::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>124000000000008</v>
-      </c>
-      <c r="C6" t="str">
-        <f>'SEED - TblInstitution'!D9</f>
-        <v>ESI</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000008::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>124000000000009</v>
-      </c>
-      <c r="C7" t="str">
-        <f>'SEED - TblInstitution'!D10</f>
-        <v>BTU</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000009::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>124000000000010</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'SEED - TblInstitution'!D11</f>
-        <v>CPM</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000010::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>124000000000011</v>
-      </c>
-      <c r="C9" t="str">
-        <f>'SEED - TblInstitution'!D12</f>
-        <v>DAYA</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000011::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>124000000000012</v>
-      </c>
-      <c r="C10" t="str">
-        <f>'SEED - TblInstitution'!D13</f>
-        <v>DDN</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000012::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>124000000000013</v>
-      </c>
-      <c r="C11" t="str">
-        <f>'SEED - TblInstitution'!D14</f>
-        <v>DHJ</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000013::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>124000000000014</v>
-      </c>
-      <c r="C12" t="str">
-        <f>'SEED - TblInstitution'!D15</f>
-        <v>DPS</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000014::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>124000000000015</v>
-      </c>
-      <c r="C13" t="str">
-        <f>'SEED - TblInstitution'!D16</f>
-        <v>DRP</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000015::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>124000000000016</v>
-      </c>
-      <c r="C14" t="str">
-        <f>'SEED - TblInstitution'!D17</f>
-        <v>EML</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000016::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>124000000000017</v>
-      </c>
-      <c r="C15" t="str">
-        <f>'SEED - TblInstitution'!D18</f>
-        <v>ERI</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000017::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>124000000000018</v>
-      </c>
-      <c r="C16" t="str">
-        <f>'SEED - TblInstitution'!D19</f>
-        <v>ESA</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000018::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>124000000000019</v>
-      </c>
-      <c r="C17" t="str">
-        <f>'SEED - TblInstitution'!D20</f>
-        <v>FIRST</v>
-      </c>
-      <c r="E17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000019::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>124000000000020</v>
-      </c>
-      <c r="C18" t="str">
-        <f>'SEED - TblInstitution'!D21</f>
-        <v>FLEX</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000020::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>124000000000021</v>
-      </c>
-      <c r="C19" t="str">
-        <f>'SEED - TblInstitution'!D22</f>
-        <v>FLM</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000021::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>124000000000022</v>
-      </c>
-      <c r="C20" t="str">
-        <f>'SEED - TblInstitution'!D23</f>
-        <v>HWEI</v>
-      </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000022::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>124000000000023</v>
-      </c>
-      <c r="C21" t="str">
-        <f>'SEED - TblInstitution'!D24</f>
-        <v>HCPT</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000023::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>124000000000024</v>
-      </c>
-      <c r="C22" t="str">
-        <f>'SEED - TblInstitution'!D25</f>
-        <v>IDP</v>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000024::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>124000000000025</v>
-      </c>
-      <c r="C23" t="str">
-        <f>'SEED - TblInstitution'!D26</f>
-        <v>IND</v>
-      </c>
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000025::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>124000000000026</v>
-      </c>
-      <c r="C24" t="str">
-        <f>'SEED - TblInstitution'!D27</f>
-        <v>INTI</v>
-      </c>
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000026::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>124000000000027</v>
-      </c>
-      <c r="C25" t="str">
-        <f>'SEED - TblInstitution'!D28</f>
-        <v>MIT</v>
-      </c>
-      <c r="E25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000027::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>124000000000028</v>
-      </c>
-      <c r="C26" t="str">
-        <f>'SEED - TblInstitution'!D29</f>
-        <v>IPC</v>
-      </c>
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000028::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>124000000000029</v>
-      </c>
-      <c r="C27" t="str">
-        <f>'SEED - TblInstitution'!D30</f>
-        <v>IBS</v>
-      </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000029::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>124000000000030</v>
-      </c>
-      <c r="C28" t="str">
-        <f>'SEED - TblInstitution'!D31</f>
-        <v>KMN</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000030::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>124000000000031</v>
-      </c>
-      <c r="C29" t="str">
-        <f>'SEED - TblInstitution'!D32</f>
-        <v>LRK</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000031::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>124000000000032</v>
-      </c>
-      <c r="C30" t="str">
-        <f>'SEED - TblInstitution'!D33</f>
-        <v>LINK</v>
-      </c>
-      <c r="E30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000032::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>124000000000033</v>
-      </c>
-      <c r="C31" t="str">
-        <f>'SEED - TblInstitution'!D34</f>
-        <v>PTLIN</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000033::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>124000000000034</v>
-      </c>
-      <c r="C32" t="str">
-        <f>'SEED - TblInstitution'!D35</f>
-        <v>Lts</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000034::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>124000000000035</v>
-      </c>
-      <c r="C33" t="str">
-        <f>'SEED - TblInstitution'!D36</f>
-        <v>MEL</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000035::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>124000000000036</v>
-      </c>
-      <c r="C34" t="str">
-        <f>'SEED - TblInstitution'!D37</f>
-        <v>MGT</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000036::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>124000000000037</v>
-      </c>
-      <c r="C35" t="str">
-        <f>'SEED - TblInstitution'!D38</f>
-        <v>NOK</v>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000037::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>124000000000038</v>
-      </c>
-      <c r="C36" t="str">
-        <f>'SEED - TblInstitution'!D39</f>
-        <v>NSN</v>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000038::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>124000000000039</v>
-      </c>
-      <c r="C37" t="str">
-        <f>'SEED - TblInstitution'!D40</f>
-        <v>PGE</v>
-      </c>
-      <c r="E37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000039::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>124000000000040</v>
-      </c>
-      <c r="C38" t="str">
-        <f>'SEED - TblInstitution'!D41</f>
-        <v>PLN</v>
-      </c>
-      <c r="E38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000040::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>124000000000041</v>
-      </c>
-      <c r="C39" t="str">
-        <f>'SEED - TblInstitution'!D42</f>
-        <v>PROTEL</v>
-      </c>
-      <c r="E39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000041::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>124000000000042</v>
-      </c>
-      <c r="C40" t="str">
-        <f>'SEED - TblInstitution'!D43</f>
-        <v>RAM</v>
-      </c>
-      <c r="E40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000042::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>124000000000043</v>
-      </c>
-      <c r="C41" t="str">
-        <f>'SEED - TblInstitution'!D44</f>
-        <v>RDEL</v>
-      </c>
-      <c r="E41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000043::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>124000000000044</v>
-      </c>
-      <c r="C42" t="str">
-        <f>'SEED - TblInstitution'!D45</f>
-        <v>CVSM</v>
-      </c>
-      <c r="E42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000044::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4">
-        <v>124000000000045</v>
-      </c>
-      <c r="C43" t="str">
-        <f>'SEED - TblInstitution'!D46</f>
-        <v>SGK</v>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000045::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
-        <v>124000000000046</v>
-      </c>
-      <c r="C44" t="str">
-        <f>'SEED - TblInstitution'!D47</f>
-        <v>SMA</v>
-      </c>
-      <c r="E44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000046::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
-        <v>124000000000047</v>
-      </c>
-      <c r="C45" t="str">
-        <f>'SEED - TblInstitution'!D48</f>
-        <v>INTEL</v>
-      </c>
-      <c r="E45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000047::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
-        <v>124000000000048</v>
-      </c>
-      <c r="C46" t="str">
-        <f>'SEED - TblInstitution'!D49</f>
-        <v>TSEL</v>
-      </c>
-      <c r="E46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000048::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
-        <v>124000000000049</v>
-      </c>
-      <c r="C47" t="str">
-        <f>'SEED - TblInstitution'!D50</f>
-        <v>TA</v>
-      </c>
-      <c r="E47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000049::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
-        <v>124000000000050</v>
-      </c>
-      <c r="C48" t="str">
-        <f>'SEED - TblInstitution'!D51</f>
-        <v>TOS</v>
-      </c>
-      <c r="E48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000050::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
-        <v>124000000000051</v>
-      </c>
-      <c r="C49" t="str">
-        <f>'SEED - TblInstitution'!D52</f>
-        <v>TCI</v>
-      </c>
-      <c r="E49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000051::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>124000000000052</v>
-      </c>
-      <c r="C50" t="str">
-        <f>'SEED - TblInstitution'!D53</f>
-        <v>WAS</v>
-      </c>
-      <c r="E50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000052::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>124000000000053</v>
-      </c>
-      <c r="C51" t="str">
-        <f>'SEED - TblInstitution'!D54</f>
-        <v>WKS</v>
-      </c>
-      <c r="E51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000053::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
-        <v>124000000000054</v>
-      </c>
-      <c r="C52" t="str">
-        <f>'SEED - TblInstitution'!D55</f>
-        <v>XL</v>
-      </c>
-      <c r="E52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000054::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
-        <v>124000000000055</v>
-      </c>
-      <c r="C53" t="str">
-        <f>'SEED - TblInstitution'!D56</f>
-        <v>XLM</v>
-      </c>
-      <c r="E53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000055::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
-        <v>124000000000056</v>
-      </c>
-      <c r="C54" t="str">
-        <f>'SEED - TblInstitution'!D57</f>
-        <v>ZTE</v>
-      </c>
-      <c r="E54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000056::bigint, null::varchar); </v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="135.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E1" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="str">
-        <f>'SEED - TblInstitution'!B2:B57</f>
-        <v>QDC Technologies</v>
-      </c>
-      <c r="C2" s="4">
-        <f>VLOOKUP(B2, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000001</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G2">
-        <v>12790</v>
-      </c>
-      <c r="H2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f>CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C2, "::bigint, ", IF(EXACT(D2, ""), "null", "'"&amp;D2&amp;"'"), "::varchar, ", IF(EXACT(E2, ""), "null", "'"&amp;E2&amp;"'"), "::varchar, ", IF(EXACT(F2, ""), "null", F2),"::bigint, ", IF(EXACT(G2, ""), "null", "'"&amp;G2&amp;"'"), "::varchar); ")</f>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000001::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="str">
-        <f>'SEED - TblInstitution'!B3:B58</f>
-        <v>Infra Media Dinamika</v>
-      </c>
-      <c r="C3" s="4">
-        <f>VLOOKUP(B3, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000002</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G3">
-        <v>12790</v>
-      </c>
-      <c r="H3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" ref="J3:J66" si="0">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C3, "::bigint, ", IF(EXACT(D3, ""), "null", "'"&amp;D3&amp;"'"), "::varchar, ", IF(EXACT(E3, ""), "null", "'"&amp;E3&amp;"'"), "::varchar, ", IF(EXACT(F3, ""), "null", F3),"::bigint, ", IF(EXACT(G3, ""), "null", "'"&amp;G3&amp;"'"), "::varchar); ")</f>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000002::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="str">
-        <f>'SEED - TblInstitution'!B4:B59</f>
-        <v>Daya Hidro Dinamika</v>
-      </c>
-      <c r="C4" s="4">
-        <f>VLOOKUP(B4, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000003</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4">
-        <v>12790</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000003::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>'SEED - TblInstitution'!B5:B86</f>
-        <v>KHA</v>
-      </c>
-      <c r="C5" s="4">
-        <f>VLOOKUP(B5, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000004</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G5">
-        <v>12790</v>
-      </c>
-      <c r="H5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000004::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
-        <f>'SEED - TblInstitution'!B6:B87</f>
-        <v>Abhitama Citra Abadi</v>
-      </c>
-      <c r="C6" s="4">
-        <f>VLOOKUP(B6, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000005</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G6">
-        <v>10220</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000005::bigint, null::varchar, '24Th Floor Menara Batavia Jl. K. H. Mas Mansyur Kav. 126 Jakarta'::varchar, null::bigint, '10220'::varchar); </v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="str">
-        <f>'SEED - TblInstitution'!B7:B88</f>
-        <v>Abiyasa Tunggal</v>
-      </c>
-      <c r="C7" s="4">
-        <f>VLOOKUP(B7, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000006</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000006::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="str">
-        <f>'SEED - TblInstitution'!B8:B62</f>
-        <v>Aplika Nusa Lintas Arta</v>
-      </c>
-      <c r="C8" s="4">
-        <f>VLOOKUP(B8, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000007</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G8">
-        <v>10250</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000007::bigint, null::varchar, 'Jl. MH Thamrin Kav. 3 Jakarta'::varchar, null::bigint, '10250'::varchar); </v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
-        <f>'SEED - TblInstitution'!B9:B63</f>
-        <v>Bakrie Telecom</v>
-      </c>
-      <c r="C9" s="4">
-        <f>VLOOKUP(B9, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000008</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G9">
-        <v>12920</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000008::bigint, null::varchar, 'Jl. H.R Rasuna Said Kav B-1, Jakarta Selatan'::varchar, null::bigint, '12920'::varchar); </v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f>'SEED - TblInstitution'!B10:B64</f>
-        <v>Bukaka Teknik Utama</v>
-      </c>
-      <c r="C10" s="4">
-        <f>VLOOKUP(B10, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000009</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G10">
-        <v>16820</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000009::bigint, null::varchar, 'Jl. Raya Bekasi Cibinong Km. 19.5, Cileungsi Bogor'::varchar, null::bigint, '16820'::varchar); </v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f>'SEED - TblInstitution'!B11:B65</f>
-        <v>Citra Panji Manunggal</v>
-      </c>
-      <c r="C11" s="4">
-        <f>VLOOKUP(B11, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000010</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G11">
-        <v>12310</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000010::bigint, null::varchar, 'Pondok Pinang Center Blok A 8 - 12, Jl. Ciputat Raya Jakarta Selatan - DKI Jakarta'::varchar, null::bigint, '12310'::varchar); </v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f>'SEED - TblInstitution'!B12:B66</f>
-        <v>Dayamitra Telekomunikasi</v>
-      </c>
-      <c r="C12" s="4">
-        <f>VLOOKUP(B12, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000011</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000011::bigint, null::varchar, 'Gedung Graha Pratama Lt 5 JL. MT Haryono Kav Tebet Jakarta Selatan'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f>'SEED - TblInstitution'!B13:B67</f>
-        <v>Departemen Dalam Negeri</v>
-      </c>
-      <c r="C13" s="4">
-        <f>VLOOKUP(B13, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000012</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000012::bigint, null::varchar, 'Jl. Medan Merdeka Utara no.7 Jakarta Pusat'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f>'SEED - TblInstitution'!B14:B68</f>
-        <v>Duta Hita Jaya</v>
-      </c>
-      <c r="C14" s="4">
-        <f>VLOOKUP(B14, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000013</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14">
-        <v>14250</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000013::bigint, null::varchar, 'Taman Pegangsaan Indah, Blok A No. 3-5_x000D_, Jl. Pegangsaan Dua, Jakarta Utara'::varchar, null::bigint, '14250'::varchar); </v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f>'SEED - TblInstitution'!B15:B69</f>
-        <v>Duta Pertiwi</v>
-      </c>
-      <c r="C15" s="4">
-        <f>VLOOKUP(B15, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000014</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15">
-        <v>60244</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000014::bigint, null::varchar, 'Komplek Pertokoan  Mangga Dua Blok A7 No. 18, Jl. Jagir Wonokromo 100, Surabaya'::varchar, null::bigint, '60244'::varchar); </v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <f>'SEED - TblInstitution'!B16:B70</f>
-        <v>Duta Realtindo Perkasa</v>
-      </c>
-      <c r="C16" s="4">
-        <f>VLOOKUP(B16, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000015</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16">
-        <v>15331</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000015::bigint, null::varchar, 'Office 99 Gedung Educenter, Jl. Sekolah Foresta, No. 8, BSD_x000D_ Tangerang-Banten'::varchar, null::bigint, '15331'::varchar); </v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <f>'SEED - TblInstitution'!B17:B71</f>
-        <v>Energi Mekar Lestari</v>
-      </c>
-      <c r="C17" s="4">
-        <f>VLOOKUP(B17, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000016</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G17">
-        <v>12150</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000016::bigint, null::varchar, 'Dutamas Fatmawati B1/20 Jl. RS Fatmawati No. 39 Jakarta Selatan'::varchar, null::bigint, '12150'::varchar); </v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f>'SEED - TblInstitution'!B18:B72</f>
-        <v>Ericson</v>
-      </c>
-      <c r="C18" s="4">
-        <f>VLOOKUP(B18, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000017</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000017::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <f>'SEED - TblInstitution'!B19:B73</f>
-        <v>Esa Mitra Teknologi</v>
-      </c>
-      <c r="C19" s="4">
-        <f>VLOOKUP(B19, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000018</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000018::bigint, null::varchar, 'JL. D.I. Pandjaitan Kav. 25 SPBU 34-13302 No. 25 Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f>'SEED - TblInstitution'!B20:B74</f>
-        <v>First Media</v>
-      </c>
-      <c r="C20" s="4">
-        <f>VLOOKUP(B20, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000019</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000019::bigint, null::varchar, 'DKI Jakarta'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <f>'SEED - TblInstitution'!B21:B75</f>
-        <v xml:space="preserve">Flexi </v>
-      </c>
-      <c r="C21" s="4">
-        <f>VLOOKUP(B21, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000020</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000020::bigint, null::varchar, 'DKI Jakarta'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f>'SEED - TblInstitution'!B22:B76</f>
-        <v>Flexi Mitrayasa</v>
-      </c>
-      <c r="C22" s="4">
-        <f>VLOOKUP(B22, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000021</v>
-      </c>
-      <c r="H22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000021::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
-        <f>'SEED - TblInstitution'!B23:B77</f>
-        <v>Huawei Tech Investment</v>
-      </c>
-      <c r="C23" s="4">
-        <f>VLOOKUP(B23, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000022</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000022::bigint, null::varchar, 'Jl. Jend Sudirman No.44-46 GD.BRI II LT.20 S.2005 Bendungan Hilir Tanah Abang Jakarta Pusat Indonesia'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
-        <f>'SEED - TblInstitution'!B24:B78</f>
-        <v>Hutchinson 3 Indonesia</v>
-      </c>
-      <c r="C24" s="4">
-        <f>VLOOKUP(B24, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000023</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G24">
-        <v>12930</v>
-      </c>
-      <c r="H24" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000023::bigint, null::varchar, 'Gedung Menara Mulia Lt.9 dan 10 Suite 901 dan 1001, Jl. Jend. Gatot Subroto Kav. 9-11 RT 002 RW 004 Karet Semanggi Setiabudi Jakarta Selatan DKI Jakarta'::varchar, null::bigint, '12930'::varchar); </v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
-        <f>'SEED - TblInstitution'!B25:B79</f>
-        <v>Indoprimasel</v>
-      </c>
-      <c r="C25" s="4">
-        <f>VLOOKUP(B25, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000024</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000024::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f>'SEED - TblInstitution'!B26:B80</f>
-        <v>Indosat</v>
-      </c>
-      <c r="C26" s="4">
-        <f>VLOOKUP(B26, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000025</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G26">
-        <v>10110</v>
-      </c>
-      <c r="H26" t="s">
-        <v>136</v>
-      </c>
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000025::bigint, null::varchar, 'JL. Medan Merdeka Barat 21 - Gambir Jakarta Pusat'::varchar, null::bigint, '10110'::varchar); </v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
-        <f>'SEED - TblInstitution'!B27:B81</f>
-        <v>Industri Telekomunikasi Indonesia</v>
-      </c>
-      <c r="C27" s="4">
-        <f>VLOOKUP(B27, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000026</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000026::bigint, null::varchar, 'Jl. Moch Toha 77 Bandung 40253 Bandung'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="str">
-        <f>'SEED - TblInstitution'!B28:B82</f>
-        <v>Infrastruktur Bisnis Sejahtera</v>
-      </c>
-      <c r="C28" s="4">
-        <f>VLOOKUP(B28, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000027</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G28">
-        <v>10350</v>
-      </c>
-      <c r="H28" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000027::bigint, null::varchar, 'JL. RIAU NO. 23 RT.009/05 GONDANGDIA MENTENG JAKARTA PUSAT  DKI JAKARTA RAYA'::varchar, null::bigint, '10350'::varchar); </v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="str">
-        <f>'SEED - TblInstitution'!B29:B83</f>
-        <v>Intershop Prima Center</v>
-      </c>
-      <c r="C29" s="4">
-        <f>VLOOKUP(B29, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000028</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G29">
-        <v>14430</v>
-      </c>
-      <c r="H29" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000028::bigint, null::varchar, 'Gedung WTC Mangga Dua Lt. 11Jl. Mangga Dua Raya Kav. 8Jakarta Utara'::varchar, null::bigint, '14430'::varchar); </v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
-        <f>'SEED - TblInstitution'!B30:B84</f>
-        <v>Inti Bangun Sejahtera</v>
-      </c>
-      <c r="C30" s="4">
-        <f>VLOOKUP(B30, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000029</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G30">
-        <v>10350</v>
-      </c>
-      <c r="H30" t="s">
-        <v>174</v>
-      </c>
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000029::bigint, null::varchar, 'Jl. Riau No.23 Menteng Jakarta'::varchar, null::bigint, '10350'::varchar); </v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
-        <f>'SEED - TblInstitution'!B31:B85</f>
-        <v>Karya Mitra Nugraha</v>
-      </c>
-      <c r="C31" s="4">
-        <f>VLOOKUP(B31, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000030</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G31">
-        <v>50231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000030::bigint, null::varchar, 'Jl Veteran 39,Bendungan,Gajah Mungkur, Semarang'::varchar, null::bigint, '50231'::varchar); </v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="str">
-        <f>'SEED - TblInstitution'!B32:B87</f>
-        <v>Lektrika Karyatama</v>
-      </c>
-      <c r="C32" s="4">
-        <f>VLOOKUP(B32, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000031</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G32">
-        <v>12450</v>
-      </c>
-      <c r="H32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000031::bigint, null::varchar, 'Jl. Margasatwa Raya No. 88 Pondok Labu, Jakarta Selatan'::varchar, null::bigint, '12450'::varchar); </v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="str">
-        <f>'SEED - TblInstitution'!B33:B88</f>
-        <v>Link Net</v>
-      </c>
-      <c r="C33" s="4">
-        <f>VLOOKUP(B33, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000032</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G33">
-        <v>12950</v>
-      </c>
-      <c r="H33" t="s">
-        <v>196</v>
-      </c>
-      <c r="J33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000032::bigint, null::varchar, 'Citra Graha Lt.4 Suite 403 Jln.Jend Gatot Subroto Kav. 35-36 Kuningan Timur, Setiabudi,Jaksel,DKI Jakarta Raya'::varchar, null::bigint, '12950'::varchar); </v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="str">
-        <f>'SEED - TblInstitution'!B34:B89</f>
-        <v>Lintas Technology</v>
-      </c>
-      <c r="C34" s="4">
-        <f>VLOOKUP(B34, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000033</v>
-      </c>
-      <c r="H34" t="s">
-        <v>202</v>
-      </c>
-      <c r="J34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000033::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="str">
-        <f>'SEED - TblInstitution'!B35:B90</f>
-        <v>Lintas Teknologi Indonesia</v>
-      </c>
-      <c r="C35" s="4">
-        <f>VLOOKUP(B35, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000034</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G35">
-        <v>12820</v>
-      </c>
-      <c r="H35" t="s">
-        <v>207</v>
-      </c>
-      <c r="J35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000034::bigint, null::varchar, 'Menara MTH Lantai 16 JL. MT HARYONO KAV. 23 JAKARTA'::varchar, null::bigint, '12820'::varchar); </v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="str">
-        <f>'SEED - TblInstitution'!B36:B91</f>
-        <v>Mega Eltra</v>
-      </c>
-      <c r="C36" s="4">
-        <f>VLOOKUP(B36, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000035</v>
-      </c>
-      <c r="H36" t="s">
-        <v>215</v>
-      </c>
-      <c r="J36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000035::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="str">
-        <f>'SEED - TblInstitution'!B37:B92</f>
-        <v>Megatel</v>
-      </c>
-      <c r="C37" s="4">
-        <f>VLOOKUP(B37, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000036</v>
-      </c>
-      <c r="H37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000036::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" t="str">
-        <f>'SEED - TblInstitution'!B38:B93</f>
-        <v>Nokia</v>
-      </c>
-      <c r="C38" s="4">
-        <f>VLOOKUP(B38, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000037</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H38" t="s">
-        <v>219</v>
-      </c>
-      <c r="J38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000037::bigint, null::varchar, 'Jl. Gatot Subroto'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" t="str">
-        <f>'SEED - TblInstitution'!B39:B94</f>
-        <v>Nokia Siemens Network</v>
-      </c>
-      <c r="C39" s="4">
-        <f>VLOOKUP(B39, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000038</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>222</v>
-      </c>
-      <c r="J39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000038::bigint, null::varchar, 'Jakarta'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="str">
-        <f>'SEED - TblInstitution'!B40:B95</f>
-        <v>Pertamina Geothermal</v>
-      </c>
-      <c r="C40" s="4">
-        <f>VLOOKUP(B40, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000039</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40">
-        <v>10340</v>
-      </c>
-      <c r="H40" t="s">
-        <v>233</v>
-      </c>
-      <c r="J40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000039::bigint, null::varchar, 'Menara Cakrawala Lt. 08_x000D_ JL. MH Thamrin No. 9 _x000D_ Jakarta Pusat'::varchar, null::bigint, '10340'::varchar); </v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="str">
-        <f>'SEED - TblInstitution'!B40:B96</f>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C41" s="4">
-        <f>VLOOKUP(B41, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D41" t="s">
-        <v>516</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G41">
-        <v>29461</v>
-      </c>
-      <c r="H41" t="s">
-        <v>226</v>
-      </c>
-      <c r="J41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Batam'::varchar, 'Jln. Engku Putri No. 3 Batam Center Batam'::varchar, null::bigint, '29461'::varchar); </v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="str">
-        <f>B41</f>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C42" s="4">
-        <f>VLOOKUP(B42, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D42" t="s">
-        <v>505</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P3B Jawa Bali APP Cawang'::varchar, 'Jl. Cililitan Besar No. 1 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" t="str">
-        <f>B42</f>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C43" s="4">
-        <f>VLOOKUP(B43, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D43" t="s">
-        <v>504</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="H43" t="s">
-        <v>248</v>
-      </c>
-      <c r="J43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan V'::varchar, 'JL. Ehave, Gandul - Kec. Cinere Kota Depok'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" t="str">
-        <f t="shared" ref="B44:B50" si="1">B43</f>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C44" s="4">
-        <f>VLOOKUP(B44, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D44" t="s">
-        <v>255</v>
-      </c>
-      <c r="H44" t="s">
-        <v>253</v>
-      </c>
-      <c r="J44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Nusa Tenggara'::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C45" s="4">
-        <f>VLOOKUP(B45, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D45" t="s">
-        <v>503</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G45">
-        <v>90222</v>
-      </c>
-      <c r="H45" t="s">
-        <v>259</v>
-      </c>
-      <c r="J45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan XIII'::varchar, 'Jl. Letjend Hertasning, Panakkukang Makasar'::varchar, null::bigint, '90222'::varchar); </v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C46" s="4">
-        <f>VLOOKUP(B46, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D46" t="s">
-        <v>517</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G46">
-        <v>50501</v>
-      </c>
-      <c r="H46" t="s">
-        <v>271</v>
-      </c>
-      <c r="J46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P2B Jawa Bali APB Jawa Tengah &amp; DIY'::varchar, 'Jl.Jendral Sudirman KM 23, Ungaran. Komplek PLN Gedung A Ungaran'::varchar, null::bigint, '50501'::varchar); </v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C47" s="4">
-        <f>VLOOKUP(B47, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H47" t="s">
-        <v>277</v>
-      </c>
-      <c r="J47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan II'::varchar, 'JL. Dr. Cipto No. 12 Medan'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C48" s="4">
-        <f>VLOOKUP(B48, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D48" t="s">
-        <v>520</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G48">
-        <v>11420</v>
-      </c>
-      <c r="H48" t="s">
-        <v>282</v>
-      </c>
-      <c r="J48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Interkoneksi Sumatera Jawa'::varchar, 'Jl. Aipda K.S. Tubun I/2 Lantai 3 Petamburan - Jakarta Barat'::varchar, null::bigint, '11420'::varchar); </v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C49" s="4">
-        <f>VLOOKUP(B49, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D49" t="s">
-        <v>519</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H49" t="s">
-        <v>289</v>
-      </c>
-      <c r="J49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan X'::varchar, 'Jl. MT Haryono No. 384 Balikpapan 76114 Kalimantan Timur'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>Pelayanan Listrik Nasional (PLN)</v>
-      </c>
-      <c r="C50" s="4">
-        <f>VLOOKUP(B50, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000040</v>
-      </c>
-      <c r="D50" t="s">
-        <v>521</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G50">
-        <v>55232</v>
-      </c>
-      <c r="H50" t="s">
-        <v>295</v>
-      </c>
-      <c r="J50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan JBT II '::varchar, 'Jl. Margo Utomo(d/h P. Mangkubumi) No. 16 Yogyakarta'::varchar, null::bigint, '55232'::varchar); </v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="str">
-        <f>'SEED - TblInstitution'!B42</f>
-        <v>Protelindo</v>
-      </c>
-      <c r="C51" s="4">
-        <f>VLOOKUP(B51, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000041</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G51">
-        <v>10310</v>
-      </c>
-      <c r="H51" t="s">
-        <v>302</v>
-      </c>
-      <c r="J51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000041::bigint, null::varchar, 'Menara BCA, 55th Floor Jl. M.H. Thamrin No. 1 Jakarta'::varchar, null::bigint, '10310'::varchar); </v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
-        <f>'SEED - TblInstitution'!B43</f>
-        <v>Ramayana Lestari Sentosa</v>
-      </c>
-      <c r="C52" s="4">
-        <f>VLOOKUP(B52, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000042</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="H52" t="s">
-        <v>311</v>
-      </c>
-      <c r="J52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000042::bigint, null::varchar, 'Jl. KH Wahid Hasyim 220 A-B, Kampung Bali - Tanah Abang Jakarta '::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="str">
-        <f>'SEED - TblInstitution'!B44</f>
-        <v>Rekadaya Elektrika</v>
-      </c>
-      <c r="C53" s="4">
-        <f>VLOOKUP(B53, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000043</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G53">
-        <v>10230</v>
-      </c>
-      <c r="H53" t="s">
-        <v>317</v>
-      </c>
-      <c r="J53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000043::bigint, null::varchar, 'Gedung Bank Mandiri Lt. 6 Jl. Tanjung Karang No.3-4A Jakarta Pusat'::varchar, null::bigint, '10230'::varchar); </v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
-        <f>'SEED - TblInstitution'!B45</f>
-        <v>Sejahtera Mandiri</v>
-      </c>
-      <c r="C54" s="4">
-        <f>VLOOKUP(B54, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000044</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H54" t="s">
-        <v>332</v>
-      </c>
-      <c r="J54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000044::bigint, null::varchar, 'Jl. Batangan - Jaken Km. 04 No. 199 Kuniran Kec. Batangan Kab. Pati jawa Tengah'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="str">
-        <f>'SEED - TblInstitution'!B46</f>
-        <v>Sigindo Kemas</v>
-      </c>
-      <c r="C55" s="4">
-        <f>VLOOKUP(B55, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000045</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G55">
-        <v>60244</v>
-      </c>
-      <c r="H55" t="s">
-        <v>339</v>
-      </c>
-      <c r="J55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000045::bigint, null::varchar, 'Kompleks Pertokoan Mangga Dua Blok A7 No 6-7 Jl. Jagir Wonokromo 100, Surabaya'::varchar, null::bigint, '60244'::varchar); </v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="str">
-        <f>'SEED - TblInstitution'!B47</f>
-        <v>Smart Telecom</v>
-      </c>
-      <c r="C56" s="4">
-        <f>VLOOKUP(B56, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000046</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G56">
-        <v>15116</v>
-      </c>
-      <c r="H56" t="s">
-        <v>345</v>
-      </c>
-      <c r="J56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000046::bigint, null::varchar, 'Jl. Agus Salim No.45 Menteng, Kebon Sirih, Jakarta Pusat'::varchar, null::bigint, '15116'::varchar); </v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="str">
-        <f>'SEED - TblInstitution'!B48</f>
-        <v>Telekomunikasi Indonesia (Telkom)</v>
-      </c>
-      <c r="C57" s="4">
-        <f>VLOOKUP(B57, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000047</v>
-      </c>
-      <c r="D57" t="s">
-        <v>513</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H57" t="s">
-        <v>352</v>
-      </c>
-      <c r="J57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Bandung'::varchar, 'JL. Japati No. 1 Bandung'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="str">
-        <f>B57</f>
-        <v>Telekomunikasi Indonesia (Telkom)</v>
-      </c>
-      <c r="C58" s="4">
-        <f>VLOOKUP(B58, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000047</v>
-      </c>
-      <c r="D58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H58" t="s">
-        <v>360</v>
-      </c>
-      <c r="J58" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Jakarta'::varchar, 'Di Jakarta'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="str">
-        <f>'SEED - TblInstitution'!B49</f>
-        <v>Telekomunikasi Selular (Telkomsel)</v>
-      </c>
-      <c r="C59" s="4">
-        <f>VLOOKUP(B59, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000048</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G59">
-        <v>12710</v>
-      </c>
-      <c r="H59" t="s">
-        <v>365</v>
-      </c>
-      <c r="J59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000048::bigint, null::varchar, 'Gedung TELKOM Landmark Tower Menara 1 LT. 1-20, JL. Jend. Gatot Subroto Kav. 52 Kuningan Barat Mampang Prapatan Jakarta Selatan DKI Jakarta'::varchar, null::bigint, '12710'::varchar); </v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="str">
-        <f>'SEED - TblInstitution'!B50</f>
-        <v>Telkom Akses</v>
-      </c>
-      <c r="C60" s="4">
-        <f>VLOOKUP(B60, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000049</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G60">
-        <v>11440</v>
-      </c>
-      <c r="H60" t="s">
-        <v>371</v>
-      </c>
-      <c r="J60" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000049::bigint, null::varchar, 'Gedung Telkom Jakarta Barat cq Unit Finance Operation. Jl. S.Parman Kav.8 Jakarta Barat'::varchar, null::bigint, '11440'::varchar); </v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="str">
-        <f>'SEED - TblInstitution'!B51</f>
-        <v>Tosan Permai Lestari</v>
-      </c>
-      <c r="C61" s="4">
-        <f>VLOOKUP(B61, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000050</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G61">
-        <v>90174</v>
-      </c>
-      <c r="H61" t="s">
-        <v>384</v>
-      </c>
-      <c r="J61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000050::bigint, null::varchar, 'JL. HOS Cokroaminoto 38 lt V Makassar'::varchar, null::bigint, '90174'::varchar); </v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="str">
-        <f>'SEED - TblInstitution'!B52</f>
-        <v>Tower Capital Indonesia</v>
-      </c>
-      <c r="C62" s="4">
-        <f>VLOOKUP(B62, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000051</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G62">
-        <v>12150</v>
-      </c>
-      <c r="H62" t="s">
-        <v>390</v>
-      </c>
-      <c r="J62" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000051::bigint, null::varchar, 'Duta Mas Fatmawati Blok B1 No.20 Jl.R.S Fatmawati 39 Jakarta'::varchar, null::bigint, '12150'::varchar); </v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="str">
-        <f>'SEED - TblInstitution'!B53</f>
-        <v>Waskita Karya</v>
-      </c>
-      <c r="C63" s="4">
-        <f>VLOOKUP(B63, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000052</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H63" t="s">
-        <v>395</v>
-      </c>
-      <c r="J63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000052::bigint, null::varchar, 'Jl. M. T. Haryono Kav. No. 10 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="str">
-        <f>'SEED - TblInstitution'!B54</f>
-        <v>Widodo Karya Sejahtera</v>
-      </c>
-      <c r="C64" s="4">
-        <f>VLOOKUP(B64, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000053</v>
-      </c>
-      <c r="H64" t="s">
-        <v>401</v>
-      </c>
-      <c r="J64" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000053::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="str">
-        <f>'SEED - TblInstitution'!B55</f>
-        <v>XL Axiata</v>
-      </c>
-      <c r="C65" s="4">
-        <f>VLOOKUP(B65, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000054</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G65">
-        <v>12950</v>
-      </c>
-      <c r="H65" t="s">
-        <v>407</v>
-      </c>
-      <c r="J65" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000054::bigint, null::varchar, 'XL Axiata Tower Jl. H.R. Rasuna Said X5 Kav.11-12 Kuningan Timur, Setiabudi Jakarta Selatan'::varchar, null::bigint, '12950'::varchar); </v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="str">
-        <f>'SEED - TblInstitution'!B56</f>
-        <v>XL Mitrayasa</v>
-      </c>
-      <c r="C66" s="4">
-        <f>VLOOKUP(B66, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000055</v>
-      </c>
-      <c r="H66" t="s">
-        <v>414</v>
-      </c>
-      <c r="J66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000055::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="str">
-        <f>'SEED - TblInstitution'!B57</f>
-        <v>ZTE Indonesia</v>
-      </c>
-      <c r="C67" s="4">
-        <f>VLOOKUP(B67, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000056</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G67">
-        <v>12950</v>
-      </c>
-      <c r="H67" t="s">
-        <v>416</v>
-      </c>
-      <c r="J67" s="3" t="str">
-        <f t="shared" ref="J67" si="2">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C67, "::bigint, ", IF(EXACT(D67, ""), "null", "'"&amp;D67&amp;"'"), "::varchar, ", IF(EXACT(E67, ""), "null", "'"&amp;E67&amp;"'"), "::varchar, ", IF(EXACT(F67, ""), "null", F67),"::bigint, ", IF(EXACT(G67, ""), "null", "'"&amp;G67&amp;"'"), "::varchar); ")</f>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000056::bigint, null::varchar, 'GD THE EAST BUILDING LT.26-27 JL. Lingkar Mega Kuningan Blok E3.2 No.1 Setiabudi Jakarta Selatan DKI Jakarta Raya'::varchar, null::bigint, '12950'::varchar); </v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7193,8 +5109,8 @@
     <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="179.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -7211,11 +5127,11 @@
         <f>CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitution_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B2, "'::varchar, ", IF(EXACT(C2, ""), "null", C2), "::bigint); ")</f>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'QDC Technologies'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="7" t="str">
         <f>B2</f>
         <v>QDC Technologies</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>123000000000001</v>
       </c>
     </row>
@@ -7233,11 +5149,11 @@
         <f t="shared" ref="F3:F57" si="0">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitution_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B3, "'::varchar, ", IF(EXACT(C3, ""), "null", C3), "::bigint); ")</f>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Infra Media Dinamika'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H57" si="1">B3</f>
         <v>Infra Media Dinamika</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>123000000000002</v>
       </c>
     </row>
@@ -7252,11 +5168,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Daya Hidro Dinamika'::varchar, null::bigint); </v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Daya Hidro Dinamika</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>123000000000003</v>
       </c>
     </row>
@@ -7271,11 +5187,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'KHA'::varchar, null::bigint); </v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>KHA</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>123000000000004</v>
       </c>
     </row>
@@ -7293,11 +5209,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abhitama Citra Abadi'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Abhitama Citra Abadi</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>123000000000005</v>
       </c>
     </row>
@@ -7312,11 +5228,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abiyasa Tunggal'::varchar, null::bigint); </v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Abiyasa Tunggal</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>123000000000006</v>
       </c>
     </row>
@@ -7334,11 +5250,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aplika Nusa Lintas Arta'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Aplika Nusa Lintas Arta</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>123000000000007</v>
       </c>
     </row>
@@ -7353,11 +5269,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bakrie Telecom'::varchar, null::bigint); </v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Bakrie Telecom</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>123000000000008</v>
       </c>
     </row>
@@ -7372,11 +5288,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bukaka Teknik Utama'::varchar, null::bigint); </v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Bukaka Teknik Utama</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>123000000000009</v>
       </c>
     </row>
@@ -7394,11 +5310,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Citra Panji Manunggal'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Citra Panji Manunggal</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>123000000000010</v>
       </c>
     </row>
@@ -7416,11 +5332,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dayamitra Telekomunikasi'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Dayamitra Telekomunikasi</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>123000000000011</v>
       </c>
     </row>
@@ -7438,11 +5354,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Departemen Dalam Negeri'::varchar, 141000000000013::bigint); </v>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Departemen Dalam Negeri</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>123000000000012</v>
       </c>
     </row>
@@ -7460,11 +5376,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Duta Hita Jaya'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Duta Hita Jaya</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>123000000000013</v>
       </c>
     </row>
@@ -7479,11 +5395,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Duta Pertiwi'::varchar, null::bigint); </v>
       </c>
-      <c r="H15" s="6" t="str">
+      <c r="H15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Duta Pertiwi</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>123000000000014</v>
       </c>
     </row>
@@ -7501,11 +5417,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Duta Realtindo Perkasa'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H16" s="6" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Duta Realtindo Perkasa</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>123000000000015</v>
       </c>
     </row>
@@ -7520,11 +5436,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Energi Mekar Lestari'::varchar, null::bigint); </v>
       </c>
-      <c r="H17" s="6" t="str">
+      <c r="H17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Energi Mekar Lestari</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>123000000000016</v>
       </c>
     </row>
@@ -7539,11 +5455,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ericson'::varchar, null::bigint); </v>
       </c>
-      <c r="H18" s="6" t="str">
+      <c r="H18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Ericson</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>123000000000017</v>
       </c>
     </row>
@@ -7561,11 +5477,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Esa Mitra Teknologi'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H19" s="6" t="str">
+      <c r="H19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Esa Mitra Teknologi</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>123000000000018</v>
       </c>
     </row>
@@ -7583,11 +5499,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'First Media'::varchar, 141000000000004::bigint); </v>
       </c>
-      <c r="H20" s="6" t="str">
+      <c r="H20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>First Media</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>123000000000019</v>
       </c>
     </row>
@@ -7602,11 +5518,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Flexi '::varchar, null::bigint); </v>
       </c>
-      <c r="H21" s="6" t="str">
+      <c r="H21" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Flexi </v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>123000000000020</v>
       </c>
     </row>
@@ -7621,11 +5537,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Flexi Mitrayasa'::varchar, null::bigint); </v>
       </c>
-      <c r="H22" s="6" t="str">
+      <c r="H22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Flexi Mitrayasa</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>123000000000021</v>
       </c>
     </row>
@@ -7643,11 +5559,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Huawei Tech Investment'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H23" s="6" t="str">
+      <c r="H23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Huawei Tech Investment</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>123000000000022</v>
       </c>
     </row>
@@ -7665,11 +5581,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hutchinson 3 Indonesia'::varchar, 141000000000003::bigint); </v>
       </c>
-      <c r="H24" s="6" t="str">
+      <c r="H24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Hutchinson 3 Indonesia</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>123000000000023</v>
       </c>
     </row>
@@ -7684,11 +5600,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indoprimasel'::varchar, null::bigint); </v>
       </c>
-      <c r="H25" s="6" t="str">
+      <c r="H25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Indoprimasel</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <v>123000000000024</v>
       </c>
     </row>
@@ -7706,11 +5622,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indosat'::varchar, 141000000000004::bigint); </v>
       </c>
-      <c r="H26" s="6" t="str">
+      <c r="H26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Indosat</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <v>123000000000025</v>
       </c>
     </row>
@@ -7728,11 +5644,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Industri Telekomunikasi Indonesia'::varchar, 141000000000005::bigint); </v>
       </c>
-      <c r="H27" s="6" t="str">
+      <c r="H27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Industri Telekomunikasi Indonesia</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <v>123000000000026</v>
       </c>
     </row>
@@ -7740,18 +5656,21 @@
       <c r="B28" t="s">
         <v>452</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D28" t="s">
         <v>157</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Infrastruktur Bisnis Sejahtera'::varchar, null::bigint); </v>
-      </c>
-      <c r="H28" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Infrastruktur Bisnis Sejahtera'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Infrastruktur Bisnis Sejahtera</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="6">
         <v>123000000000027</v>
       </c>
     </row>
@@ -7759,18 +5678,21 @@
       <c r="B29" t="s">
         <v>165</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D29" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Intershop Prima Center'::varchar, null::bigint); </v>
-      </c>
-      <c r="H29" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Intershop Prima Center'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Intershop Prima Center</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="6">
         <v>123000000000028</v>
       </c>
     </row>
@@ -7778,18 +5700,21 @@
       <c r="B30" t="s">
         <v>453</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="D30" t="s">
         <v>174</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Inti Bangun Sejahtera'::varchar, null::bigint); </v>
-      </c>
-      <c r="H30" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Inti Bangun Sejahtera'::varchar, 141000000000004::bigint); </v>
+      </c>
+      <c r="H30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Inti Bangun Sejahtera</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="6">
         <v>123000000000029</v>
       </c>
     </row>
@@ -7797,18 +5722,21 @@
       <c r="B31" t="s">
         <v>179</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D31" t="s">
         <v>180</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karya Mitra Nugraha'::varchar, null::bigint); </v>
-      </c>
-      <c r="H31" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karya Mitra Nugraha'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Karya Mitra Nugraha</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="6">
         <v>123000000000030</v>
       </c>
     </row>
@@ -7816,18 +5744,21 @@
       <c r="B32" t="s">
         <v>454</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D32" t="s">
         <v>191</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lektrika Karyatama'::varchar, null::bigint); </v>
-      </c>
-      <c r="H32" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lektrika Karyatama'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Lektrika Karyatama</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="6">
         <v>123000000000031</v>
       </c>
     </row>
@@ -7835,18 +5766,21 @@
       <c r="B33" t="s">
         <v>455</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D33" t="s">
         <v>196</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Link Net'::varchar, null::bigint); </v>
-      </c>
-      <c r="H33" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Link Net'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Link Net</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="6">
         <v>123000000000032</v>
       </c>
     </row>
@@ -7854,18 +5788,21 @@
       <c r="B34" t="s">
         <v>201</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D34" t="s">
         <v>202</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lintas Technology'::varchar, null::bigint); </v>
-      </c>
-      <c r="H34" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lintas Technology'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Lintas Technology</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="6">
         <v>123000000000033</v>
       </c>
     </row>
@@ -7873,18 +5810,21 @@
       <c r="B35" t="s">
         <v>456</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D35" t="s">
         <v>207</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lintas Teknologi Indonesia'::varchar, null::bigint); </v>
-      </c>
-      <c r="H35" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lintas Teknologi Indonesia'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Lintas Teknologi Indonesia</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="6">
         <v>123000000000034</v>
       </c>
     </row>
@@ -7899,11 +5839,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mega Eltra'::varchar, null::bigint); </v>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="H36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Mega Eltra</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="6">
         <v>123000000000035</v>
       </c>
     </row>
@@ -7918,11 +5858,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Megatel'::varchar, null::bigint); </v>
       </c>
-      <c r="H37" s="6" t="str">
+      <c r="H37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Megatel</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="6">
         <v>123000000000036</v>
       </c>
     </row>
@@ -7937,11 +5877,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nokia'::varchar, null::bigint); </v>
       </c>
-      <c r="H38" s="6" t="str">
+      <c r="H38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Nokia</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="6">
         <v>123000000000037</v>
       </c>
     </row>
@@ -7956,36 +5896,39 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nokia Siemens Network'::varchar, null::bigint); </v>
       </c>
-      <c r="H39" s="6" t="str">
+      <c r="H39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Nokia Siemens Network</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="6">
         <v>123000000000038</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>232</v>
+        <v>602</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D40" t="s">
         <v>233</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pertamina Geothermal'::varchar, null::bigint); </v>
-      </c>
-      <c r="H40" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pertamina Geothermal Energy'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H40" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pertamina Geothermal</v>
-      </c>
-      <c r="I40" s="5">
+        <v>Pertamina Geothermal Energy</v>
+      </c>
+      <c r="I40" s="6">
         <v>123000000000039</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>465</v>
@@ -7997,11 +5940,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pelayanan Listrik Nasional (PLN)'::varchar, 141000000000005::bigint); </v>
       </c>
-      <c r="H41" s="6" t="str">
+      <c r="H41" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Pelayanan Listrik Nasional (PLN)</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="6">
         <v>123000000000040</v>
       </c>
     </row>
@@ -8009,18 +5952,21 @@
       <c r="B42" t="s">
         <v>301</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D42" t="s">
         <v>302</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Protelindo'::varchar, null::bigint); </v>
-      </c>
-      <c r="H42" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Protelindo'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Protelindo</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="6">
         <v>123000000000041</v>
       </c>
     </row>
@@ -8035,11 +5981,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ramayana Lestari Sentosa'::varchar, null::bigint); </v>
       </c>
-      <c r="H43" s="6" t="str">
+      <c r="H43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Ramayana Lestari Sentosa</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="6">
         <v>123000000000042</v>
       </c>
     </row>
@@ -8047,18 +5993,21 @@
       <c r="B44" t="s">
         <v>316</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D44" t="s">
         <v>317</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rekadaya Elektrika'::varchar, null::bigint); </v>
-      </c>
-      <c r="H44" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rekadaya Elektrika'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H44" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Rekadaya Elektrika</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="6">
         <v>123000000000043</v>
       </c>
     </row>
@@ -8067,7 +6016,7 @@
         <v>461</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D45" t="s">
         <v>332</v>
@@ -8076,11 +6025,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sejahtera Mandiri'::varchar, 141000000000001::bigint); </v>
       </c>
-      <c r="H45" s="6" t="str">
+      <c r="H45" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Sejahtera Mandiri</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="6">
         <v>123000000000044</v>
       </c>
     </row>
@@ -8088,18 +6037,21 @@
       <c r="B46" t="s">
         <v>338</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D46" t="s">
         <v>339</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sigindo Kemas'::varchar, null::bigint); </v>
-      </c>
-      <c r="H46" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sigindo Kemas'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H46" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Sigindo Kemas</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="6">
         <v>123000000000045</v>
       </c>
     </row>
@@ -8107,18 +6059,21 @@
       <c r="B47" t="s">
         <v>344</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D47" t="s">
         <v>345</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Smart Telecom'::varchar, null::bigint); </v>
-      </c>
-      <c r="H47" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Smart Telecom'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H47" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Smart Telecom</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="6">
         <v>123000000000046</v>
       </c>
     </row>
@@ -8136,11 +6091,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Telekomunikasi Indonesia (Telkom)'::varchar, 141000000000006::bigint); </v>
       </c>
-      <c r="H48" s="6" t="str">
+      <c r="H48" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Telekomunikasi Indonesia (Telkom)</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="6">
         <v>123000000000047</v>
       </c>
     </row>
@@ -8158,11 +6113,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Telekomunikasi Selular (Telkomsel)'::varchar, 141000000000004::bigint); </v>
       </c>
-      <c r="H49" s="6" t="str">
+      <c r="H49" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Telekomunikasi Selular (Telkomsel)</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="6">
         <v>123000000000048</v>
       </c>
     </row>
@@ -8170,18 +6125,21 @@
       <c r="B50" t="s">
         <v>377</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="s">
         <v>371</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Telkom Akses'::varchar, null::bigint); </v>
-      </c>
-      <c r="H50" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Telkom Akses'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H50" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Telkom Akses</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="6">
         <v>123000000000049</v>
       </c>
     </row>
@@ -8189,18 +6147,21 @@
       <c r="B51" t="s">
         <v>463</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D51" t="s">
         <v>384</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tosan Permai Lestari'::varchar, null::bigint); </v>
-      </c>
-      <c r="H51" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tosan Permai Lestari'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H51" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Tosan Permai Lestari</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="6">
         <v>123000000000050</v>
       </c>
     </row>
@@ -8208,18 +6169,21 @@
       <c r="B52" t="s">
         <v>389</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D52" t="s">
         <v>390</v>
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tower Capital Indonesia'::varchar, null::bigint); </v>
-      </c>
-      <c r="H52" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tower Capital Indonesia'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H52" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Tower Capital Indonesia</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="6">
         <v>123000000000051</v>
       </c>
     </row>
@@ -8237,11 +6201,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Waskita Karya'::varchar, 141000000000005::bigint); </v>
       </c>
-      <c r="H53" s="6" t="str">
+      <c r="H53" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Waskita Karya</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="6">
         <v>123000000000052</v>
       </c>
     </row>
@@ -8256,11 +6220,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Widodo Karya Sejahtera'::varchar, null::bigint); </v>
       </c>
-      <c r="H54" s="6" t="str">
+      <c r="H54" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Widodo Karya Sejahtera</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="6">
         <v>123000000000053</v>
       </c>
     </row>
@@ -8268,18 +6232,21 @@
       <c r="B55" t="s">
         <v>440</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="D55" t="s">
         <v>407</v>
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'XL Axiata'::varchar, null::bigint); </v>
-      </c>
-      <c r="H55" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'XL Axiata'::varchar, 141000000000004::bigint); </v>
+      </c>
+      <c r="H55" s="7" t="str">
         <f t="shared" si="1"/>
         <v>XL Axiata</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="6">
         <v>123000000000054</v>
       </c>
     </row>
@@ -8294,11 +6261,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'XL Mitrayasa'::varchar, null::bigint); </v>
       </c>
-      <c r="H56" s="6" t="str">
+      <c r="H56" s="7" t="str">
         <f t="shared" si="1"/>
         <v>XL Mitrayasa</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="6">
         <v>123000000000055</v>
       </c>
     </row>
@@ -8306,18 +6273,21 @@
       <c r="B57" t="s">
         <v>438</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="D57" t="s">
         <v>416</v>
       </c>
       <c r="F57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'ZTE Indonesia'::varchar, null::bigint); </v>
-      </c>
-      <c r="H57" s="6" t="str">
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitution_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'ZTE Indonesia'::varchar, 141000000000003::bigint); </v>
+      </c>
+      <c r="H57" s="7" t="str">
         <f t="shared" si="1"/>
         <v>ZTE Indonesia</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="6">
         <v>123000000000056</v>
       </c>
     </row>
@@ -8325,8 +6295,2336 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C53 C41 C48:C49 C13:C14 C2:C3 C6:C11 C12 C45 C16 C19:C20 C23:C27" numberStoredAsText="1"/>
+    <ignoredError sqref="C53 C40:C41 C48:C49 C13:C14 C2:C3 C6:C11 C12 C45 C16 C19:C20 C23:C30 C31:C33 C34:C35 C42:C44 C46:C47 C50:C52 C55" numberStoredAsText="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E65"/>
+  <sheetViews>
+    <sheetView topLeftCell="C58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>124000000000002</v>
+      </c>
+      <c r="C2" t="str">
+        <f>'SEED - TblInstitutionBranch'!H3</f>
+        <v>IMD</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>CONCATENATE("PERFORM ""SchData-OLTP-CustomerRelation"".""Func_TblCustomer_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID,  ", IF(EXACT(B2, ""), "null", B2), "::bigint, ", IF(EXACT(C2, ""), "null", "'"&amp;C2&amp;"'"), "::varchar); ")</f>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000002::bigint, 'IMD'::varchar); </v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>124000000000005</v>
+      </c>
+      <c r="C3" t="str">
+        <f>'SEED - TblInstitutionBranch'!H6</f>
+        <v>ACA</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E64" si="0">CONCATENATE("PERFORM ""SchData-OLTP-CustomerRelation"".""Func_TblCustomer_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID,  ", IF(EXACT(B3, ""), "null", B3), "::bigint, ", IF(EXACT(C3, ""), "null", "'"&amp;C3&amp;"'"), "::varchar); ")</f>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000005::bigint, 'ACA'::varchar); </v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>124000000000006</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'SEED - TblInstitutionBranch'!H7</f>
+        <v>ABI</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000006::bigint, 'ABI'::varchar); </v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>124000000000007</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'SEED - TblInstitutionBranch'!H8</f>
+        <v>LTA</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000007::bigint, 'LTA'::varchar); </v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>124000000000008</v>
+      </c>
+      <c r="C6" t="str">
+        <f>'SEED - TblInstitutionBranch'!H9</f>
+        <v>ESI</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000008::bigint, 'ESI'::varchar); </v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>124000000000009</v>
+      </c>
+      <c r="C7" t="str">
+        <f>'SEED - TblInstitutionBranch'!H10</f>
+        <v>BTU</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000009::bigint, 'BTU'::varchar); </v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>124000000000010</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'SEED - TblInstitutionBranch'!H11</f>
+        <v>CPM</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000010::bigint, 'CPM'::varchar); </v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>124000000000011</v>
+      </c>
+      <c r="C9" t="str">
+        <f>'SEED - TblInstitutionBranch'!H12</f>
+        <v>DAYA</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000011::bigint, 'DAYA'::varchar); </v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>124000000000012</v>
+      </c>
+      <c r="C10" t="str">
+        <f>'SEED - TblInstitutionBranch'!H13</f>
+        <v>DDN</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000012::bigint, 'DDN'::varchar); </v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>124000000000013</v>
+      </c>
+      <c r="C11" t="str">
+        <f>'SEED - TblInstitutionBranch'!H14</f>
+        <v>DHJ</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000013::bigint, 'DHJ'::varchar); </v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>124000000000014</v>
+      </c>
+      <c r="C12" t="str">
+        <f>'SEED - TblInstitutionBranch'!H15</f>
+        <v>DPS</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000014::bigint, 'DPS'::varchar); </v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>124000000000015</v>
+      </c>
+      <c r="C13" t="str">
+        <f>'SEED - TblInstitutionBranch'!H16</f>
+        <v>DRP</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000015::bigint, 'DRP'::varchar); </v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>124000000000016</v>
+      </c>
+      <c r="C14" t="str">
+        <f>'SEED - TblInstitutionBranch'!H17</f>
+        <v>EML</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000016::bigint, 'EML'::varchar); </v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>124000000000017</v>
+      </c>
+      <c r="C15" t="str">
+        <f>'SEED - TblInstitutionBranch'!H18</f>
+        <v>ERI</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000017::bigint, 'ERI'::varchar); </v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>124000000000018</v>
+      </c>
+      <c r="C16" t="str">
+        <f>'SEED - TblInstitutionBranch'!H19</f>
+        <v>ESA</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000018::bigint, 'ESA'::varchar); </v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>124000000000019</v>
+      </c>
+      <c r="C17" t="str">
+        <f>'SEED - TblInstitutionBranch'!H20</f>
+        <v>FIRST</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000019::bigint, 'FIRST'::varchar); </v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>124000000000020</v>
+      </c>
+      <c r="C18" t="str">
+        <f>'SEED - TblInstitutionBranch'!H21</f>
+        <v>FLEX</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000020::bigint, 'FLEX'::varchar); </v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>124000000000021</v>
+      </c>
+      <c r="C19" t="str">
+        <f>'SEED - TblInstitutionBranch'!H22</f>
+        <v>FLM</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000021::bigint, 'FLM'::varchar); </v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>124000000000022</v>
+      </c>
+      <c r="C20" t="str">
+        <f>'SEED - TblInstitutionBranch'!H23</f>
+        <v>HWEI</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000022::bigint, 'HWEI'::varchar); </v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>124000000000023</v>
+      </c>
+      <c r="C21" t="str">
+        <f>'SEED - TblInstitutionBranch'!H24</f>
+        <v>HCPT</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000023::bigint, 'HCPT'::varchar); </v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>124000000000024</v>
+      </c>
+      <c r="C22" t="str">
+        <f>'SEED - TblInstitutionBranch'!H25</f>
+        <v>IDP</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000024::bigint, 'IDP'::varchar); </v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>124000000000025</v>
+      </c>
+      <c r="C23" t="str">
+        <f>'SEED - TblInstitutionBranch'!H26</f>
+        <v>IND</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000025::bigint, 'IND'::varchar); </v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>124000000000026</v>
+      </c>
+      <c r="C24" t="str">
+        <f>'SEED - TblInstitutionBranch'!H27</f>
+        <v>INTI</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000026::bigint, 'INTI'::varchar); </v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>124000000000027</v>
+      </c>
+      <c r="C25" t="str">
+        <f>'SEED - TblInstitutionBranch'!H28</f>
+        <v>MIT</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000027::bigint, 'MIT'::varchar); </v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>124000000000028</v>
+      </c>
+      <c r="C26" t="str">
+        <f>'SEED - TblInstitutionBranch'!H29</f>
+        <v>IPC</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000028::bigint, 'IPC'::varchar); </v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>124000000000029</v>
+      </c>
+      <c r="C27" t="str">
+        <f>'SEED - TblInstitutionBranch'!H30</f>
+        <v>IBS</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000029::bigint, 'IBS'::varchar); </v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>124000000000030</v>
+      </c>
+      <c r="C28" t="str">
+        <f>'SEED - TblInstitutionBranch'!H31</f>
+        <v>KMN</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000030::bigint, 'KMN'::varchar); </v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>124000000000031</v>
+      </c>
+      <c r="C29" t="str">
+        <f>'SEED - TblInstitutionBranch'!H32</f>
+        <v>LRK</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000031::bigint, 'LRK'::varchar); </v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>124000000000032</v>
+      </c>
+      <c r="C30" t="str">
+        <f>'SEED - TblInstitutionBranch'!H33</f>
+        <v>LINK</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000032::bigint, 'LINK'::varchar); </v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>124000000000033</v>
+      </c>
+      <c r="C31" t="str">
+        <f>'SEED - TblInstitutionBranch'!H34</f>
+        <v>PTLIN</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000033::bigint, 'PTLIN'::varchar); </v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>124000000000034</v>
+      </c>
+      <c r="C32" t="str">
+        <f>'SEED - TblInstitutionBranch'!H35</f>
+        <v>Lts</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000034::bigint, 'Lts'::varchar); </v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>124000000000035</v>
+      </c>
+      <c r="C33" t="str">
+        <f>'SEED - TblInstitutionBranch'!H36</f>
+        <v>MEL</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000035::bigint, 'MEL'::varchar); </v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>124000000000036</v>
+      </c>
+      <c r="C34" t="str">
+        <f>'SEED - TblInstitutionBranch'!H37</f>
+        <v>MGT</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000036::bigint, 'MGT'::varchar); </v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>124000000000037</v>
+      </c>
+      <c r="C35" t="str">
+        <f>'SEED - TblInstitutionBranch'!H38</f>
+        <v>NOK</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000037::bigint, 'NOK'::varchar); </v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>124000000000038</v>
+      </c>
+      <c r="C36" t="str">
+        <f>'SEED - TblInstitutionBranch'!H39</f>
+        <v>NSN</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000038::bigint, 'NSN'::varchar); </v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>124000000000039</v>
+      </c>
+      <c r="C37" t="str">
+        <f>'SEED - TblInstitutionBranch'!H40</f>
+        <v>PGE</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000039::bigint, 'PGE'::varchar); </v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>124000000000040</v>
+      </c>
+      <c r="C38" t="str">
+        <f>'SEED - TblInstitutionBranch'!H41</f>
+        <v>PLN BA</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000040::bigint, 'PLN BA'::varchar); </v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>124000000000041</v>
+      </c>
+      <c r="C39" t="str">
+        <f>'SEED - TblInstitutionBranch'!H42</f>
+        <v>PLNCA</v>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000041::bigint, 'PLNCA'::varchar); </v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>124000000000042</v>
+      </c>
+      <c r="C40" t="str">
+        <f>'SEED - TblInstitutionBranch'!H43</f>
+        <v>PLN JK</v>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000042::bigint, 'PLN JK'::varchar); </v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>124000000000043</v>
+      </c>
+      <c r="C41" t="str">
+        <f>'SEED - TblInstitutionBranch'!H44</f>
+        <v>PLNma</v>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000043::bigint, 'PLNma'::varchar); </v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>124000000000044</v>
+      </c>
+      <c r="C42" t="str">
+        <f>'SEED - TblInstitutionBranch'!H45</f>
+        <v>PLN MA</v>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000044::bigint, 'PLN MA'::varchar); </v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>124000000000045</v>
+      </c>
+      <c r="C43" t="str">
+        <f>'SEED - TblInstitutionBranch'!H46</f>
+        <v>PLNJB</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000045::bigint, 'PLNJB'::varchar); </v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>124000000000046</v>
+      </c>
+      <c r="C44" t="str">
+        <f>'SEED - TblInstitutionBranch'!H47</f>
+        <v>PLNMD</v>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000046::bigint, 'PLNMD'::varchar); </v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>124000000000047</v>
+      </c>
+      <c r="C45" t="str">
+        <f>'SEED - TblInstitutionBranch'!H48</f>
+        <v>PLNIJ</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000047::bigint, 'PLNIJ'::varchar); </v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>124000000000048</v>
+      </c>
+      <c r="C46" t="str">
+        <f>'SEED - TblInstitutionBranch'!H49</f>
+        <v>PLN SCADA</v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000048::bigint, 'PLN SCADA'::varchar); </v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>124000000000049</v>
+      </c>
+      <c r="C47" t="str">
+        <f>'SEED - TblInstitutionBranch'!H50</f>
+        <v>PLNYK</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000049::bigint, 'PLNYK'::varchar); </v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>124000000000050</v>
+      </c>
+      <c r="C48" t="str">
+        <f>'SEED - TblInstitutionBranch'!H51</f>
+        <v>PROTEL</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000050::bigint, 'PROTEL'::varchar); </v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>124000000000051</v>
+      </c>
+      <c r="C49" t="str">
+        <f>'SEED - TblInstitutionBranch'!H52</f>
+        <v>RAM</v>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000051::bigint, 'RAM'::varchar); </v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>124000000000052</v>
+      </c>
+      <c r="C50" t="str">
+        <f>'SEED - TblInstitutionBranch'!H53</f>
+        <v>RDEL</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000052::bigint, 'RDEL'::varchar); </v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>124000000000053</v>
+      </c>
+      <c r="C51" t="str">
+        <f>'SEED - TblInstitutionBranch'!H54</f>
+        <v>CVSM</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000053::bigint, 'CVSM'::varchar); </v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>124000000000054</v>
+      </c>
+      <c r="C52" t="str">
+        <f>'SEED - TblInstitutionBranch'!H55</f>
+        <v>SGK</v>
+      </c>
+      <c r="E52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000054::bigint, 'SGK'::varchar); </v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>124000000000055</v>
+      </c>
+      <c r="C53" t="str">
+        <f>'SEED - TblInstitutionBranch'!H56</f>
+        <v>SMA</v>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000055::bigint, 'SMA'::varchar); </v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>124000000000056</v>
+      </c>
+      <c r="C54" t="str">
+        <f>'SEED - TblInstitutionBranch'!H57</f>
+        <v>INTEL</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000056::bigint, 'INTEL'::varchar); </v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>124000000000057</v>
+      </c>
+      <c r="C55" t="str">
+        <f>'SEED - TblInstitutionBranch'!H58</f>
+        <v>Telkom jkt</v>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000057::bigint, 'Telkom jkt'::varchar); </v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>124000000000058</v>
+      </c>
+      <c r="C56" t="str">
+        <f>'SEED - TblInstitutionBranch'!H59</f>
+        <v>TSEL</v>
+      </c>
+      <c r="E56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000058::bigint, 'TSEL'::varchar); </v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>124000000000059</v>
+      </c>
+      <c r="C57" t="str">
+        <f>'SEED - TblInstitutionBranch'!H60</f>
+        <v>TA</v>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000059::bigint, 'TA'::varchar); </v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>124000000000060</v>
+      </c>
+      <c r="C58" t="str">
+        <f>'SEED - TblInstitutionBranch'!H61</f>
+        <v>TOS</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000060::bigint, 'TOS'::varchar); </v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>124000000000061</v>
+      </c>
+      <c r="C59" t="str">
+        <f>'SEED - TblInstitutionBranch'!H62</f>
+        <v>TCI</v>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000061::bigint, 'TCI'::varchar); </v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>124000000000062</v>
+      </c>
+      <c r="C60" t="str">
+        <f>'SEED - TblInstitutionBranch'!H63</f>
+        <v>WAS</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000062::bigint, 'WAS'::varchar); </v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>124000000000063</v>
+      </c>
+      <c r="C61" t="str">
+        <f>'SEED - TblInstitutionBranch'!H64</f>
+        <v>WKS</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000063::bigint, 'WKS'::varchar); </v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>124000000000064</v>
+      </c>
+      <c r="C62" t="str">
+        <f>'SEED - TblInstitutionBranch'!H65</f>
+        <v>XL</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000064::bigint, 'XL'::varchar); </v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>124000000000065</v>
+      </c>
+      <c r="C63" t="str">
+        <f>'SEED - TblInstitutionBranch'!H66</f>
+        <v>XLM</v>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000065::bigint, 'XLM'::varchar); </v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>124000000000066</v>
+      </c>
+      <c r="C64" t="str">
+        <f>'SEED - TblInstitutionBranch'!H67</f>
+        <v>ZTE</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000066::bigint, 'ZTE'::varchar); </v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J67"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="135.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>'SEED - TblInstitution'!B2:B57</f>
+        <v>QDC Technologies</v>
+      </c>
+      <c r="C2" s="4">
+        <f>VLOOKUP(B2, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000001</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>12790</v>
+      </c>
+      <c r="H2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C2, "::bigint, ", IF(EXACT(D2, ""), "null", "'"&amp;D2&amp;"'"), "::varchar, ", IF(EXACT(E2, ""), "null", "'"&amp;E2&amp;"'"), "::varchar, ", IF(EXACT(F2, ""), "null", F2),"::bigint, ", IF(EXACT(G2, ""), "null", "'"&amp;G2&amp;"'"), "::varchar); ")</f>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000001::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f>'SEED - TblInstitution'!B3:B58</f>
+        <v>Infra Media Dinamika</v>
+      </c>
+      <c r="C3" s="4">
+        <f>VLOOKUP(B3, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000002</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3">
+        <v>12790</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J66" si="0">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C3, "::bigint, ", IF(EXACT(D3, ""), "null", "'"&amp;D3&amp;"'"), "::varchar, ", IF(EXACT(E3, ""), "null", "'"&amp;E3&amp;"'"), "::varchar, ", IF(EXACT(F3, ""), "null", F3),"::bigint, ", IF(EXACT(G3, ""), "null", "'"&amp;G3&amp;"'"), "::varchar); ")</f>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000002::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>'SEED - TblInstitution'!B4:B59</f>
+        <v>Daya Hidro Dinamika</v>
+      </c>
+      <c r="C4" s="4">
+        <f>VLOOKUP(B4, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000003</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4">
+        <v>12790</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000003::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>'SEED - TblInstitution'!B5:B86</f>
+        <v>KHA</v>
+      </c>
+      <c r="C5" s="4">
+        <f>VLOOKUP(B5, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000004</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G5">
+        <v>12790</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000004::bigint, null::varchar, 'Graha Sentra Mampang QDC, Jl. Mampang Prapatan Raya No. 28 Blok C Pela Mampang Kecamatan Mampang Kota Jakarta Selatan Propinsi DKI Jakarta'::varchar, null::bigint, '12790'::varchar); </v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>'SEED - TblInstitution'!B6:B87</f>
+        <v>Abhitama Citra Abadi</v>
+      </c>
+      <c r="C6" s="4">
+        <f>VLOOKUP(B6, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000005</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6">
+        <v>10220</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000005::bigint, null::varchar, '24Th Floor Menara Batavia Jl. K. H. Mas Mansyur Kav. 126 Jakarta'::varchar, null::bigint, '10220'::varchar); </v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f>'SEED - TblInstitution'!B7:B88</f>
+        <v>Abiyasa Tunggal</v>
+      </c>
+      <c r="C7" s="4">
+        <f>VLOOKUP(B7, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000006</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000006::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f>'SEED - TblInstitution'!B8:B62</f>
+        <v>Aplika Nusa Lintas Arta</v>
+      </c>
+      <c r="C8" s="4">
+        <f>VLOOKUP(B8, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000007</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8">
+        <v>10250</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000007::bigint, null::varchar, 'Jl. MH Thamrin Kav. 3 Jakarta'::varchar, null::bigint, '10250'::varchar); </v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>'SEED - TblInstitution'!B9:B63</f>
+        <v>Bakrie Telecom</v>
+      </c>
+      <c r="C9" s="4">
+        <f>VLOOKUP(B9, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000008</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G9">
+        <v>12920</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000008::bigint, null::varchar, 'Jl. H.R Rasuna Said Kav B-1, Jakarta Selatan'::varchar, null::bigint, '12920'::varchar); </v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>'SEED - TblInstitution'!B10:B64</f>
+        <v>Bukaka Teknik Utama</v>
+      </c>
+      <c r="C10" s="4">
+        <f>VLOOKUP(B10, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000009</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G10">
+        <v>16820</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000009::bigint, null::varchar, 'Jl. Raya Bekasi Cibinong Km. 19.5, Cileungsi Bogor'::varchar, null::bigint, '16820'::varchar); </v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>'SEED - TblInstitution'!B11:B65</f>
+        <v>Citra Panji Manunggal</v>
+      </c>
+      <c r="C11" s="4">
+        <f>VLOOKUP(B11, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000010</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G11">
+        <v>12310</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000010::bigint, null::varchar, 'Pondok Pinang Center Blok A 8 - 12, Jl. Ciputat Raya Jakarta Selatan - DKI Jakarta'::varchar, null::bigint, '12310'::varchar); </v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>'SEED - TblInstitution'!B12:B66</f>
+        <v>Dayamitra Telekomunikasi</v>
+      </c>
+      <c r="C12" s="4">
+        <f>VLOOKUP(B12, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000011</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000011::bigint, null::varchar, 'Gedung Graha Pratama Lt 5 JL. MT Haryono Kav Tebet Jakarta Selatan'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>'SEED - TblInstitution'!B13:B67</f>
+        <v>Departemen Dalam Negeri</v>
+      </c>
+      <c r="C13" s="4">
+        <f>VLOOKUP(B13, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000012</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000012::bigint, null::varchar, 'Jl. Medan Merdeka Utara no.7 Jakarta Pusat'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'SEED - TblInstitution'!B14:B68</f>
+        <v>Duta Hita Jaya</v>
+      </c>
+      <c r="C14" s="4">
+        <f>VLOOKUP(B14, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000013</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14">
+        <v>14250</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000013::bigint, null::varchar, 'Taman Pegangsaan Indah, Blok A No. 3-5, Jl. Pegangsaan Dua, Jakarta Utara'::varchar, null::bigint, '14250'::varchar); </v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>'SEED - TblInstitution'!B15:B69</f>
+        <v>Duta Pertiwi</v>
+      </c>
+      <c r="C15" s="4">
+        <f>VLOOKUP(B15, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000014</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15">
+        <v>60244</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000014::bigint, null::varchar, 'Komplek Pertokoan  Mangga Dua Blok A7 No. 18, Jl. Jagir Wonokromo 100, Surabaya'::varchar, null::bigint, '60244'::varchar); </v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f>'SEED - TblInstitution'!B16:B70</f>
+        <v>Duta Realtindo Perkasa</v>
+      </c>
+      <c r="C16" s="4">
+        <f>VLOOKUP(B16, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000015</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16">
+        <v>15331</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000015::bigint, null::varchar, 'Office 99 Gedung Educenter, Jl. Sekolah Foresta, No. 8, BSD Tangerang-Banten'::varchar, null::bigint, '15331'::varchar); </v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f>'SEED - TblInstitution'!B17:B71</f>
+        <v>Energi Mekar Lestari</v>
+      </c>
+      <c r="C17" s="4">
+        <f>VLOOKUP(B17, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000016</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <v>12150</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000016::bigint, null::varchar, 'Dutamas Fatmawati B1/20 Jl. RS Fatmawati No. 39 Jakarta Selatan'::varchar, null::bigint, '12150'::varchar); </v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f>'SEED - TblInstitution'!B18:B72</f>
+        <v>Ericson</v>
+      </c>
+      <c r="C18" s="4">
+        <f>VLOOKUP(B18, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000017</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000017::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="str">
+        <f>'SEED - TblInstitution'!B19:B73</f>
+        <v>Esa Mitra Teknologi</v>
+      </c>
+      <c r="C19" s="4">
+        <f>VLOOKUP(B19, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000018</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000018::bigint, null::varchar, 'JL. D.I. Pandjaitan Kav. 25 SPBU 34-13302 No. 25 Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f>'SEED - TblInstitution'!B20:B74</f>
+        <v>First Media</v>
+      </c>
+      <c r="C20" s="4">
+        <f>VLOOKUP(B20, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000019</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000019::bigint, null::varchar, 'DKI Jakarta'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f>'SEED - TblInstitution'!B21:B75</f>
+        <v xml:space="preserve">Flexi </v>
+      </c>
+      <c r="C21" s="4">
+        <f>VLOOKUP(B21, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000020</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000020::bigint, null::varchar, 'DKI Jakarta'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f>'SEED - TblInstitution'!B22:B76</f>
+        <v>Flexi Mitrayasa</v>
+      </c>
+      <c r="C22" s="4">
+        <f>VLOOKUP(B22, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000021</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000021::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f>'SEED - TblInstitution'!B23:B77</f>
+        <v>Huawei Tech Investment</v>
+      </c>
+      <c r="C23" s="4">
+        <f>VLOOKUP(B23, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000022</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000022::bigint, null::varchar, 'Jl. Jend Sudirman No.44-46 GD.BRI II LT.20 S.2005 Bendungan Hilir Tanah Abang Jakarta Pusat Indonesia'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f>'SEED - TblInstitution'!B24:B78</f>
+        <v>Hutchinson 3 Indonesia</v>
+      </c>
+      <c r="C24" s="4">
+        <f>VLOOKUP(B24, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000023</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G24">
+        <v>12930</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000023::bigint, null::varchar, 'Gedung Menara Mulia Lt.9 dan 10 Suite 901 dan 1001, Jl. Jend. Gatot Subroto Kav. 9-11 RT 002 RW 004 Karet Semanggi Setiabudi Jakarta Selatan DKI Jakarta'::varchar, null::bigint, '12930'::varchar); </v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f>'SEED - TblInstitution'!B25:B79</f>
+        <v>Indoprimasel</v>
+      </c>
+      <c r="C25" s="4">
+        <f>VLOOKUP(B25, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000024</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000024::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>'SEED - TblInstitution'!B26:B80</f>
+        <v>Indosat</v>
+      </c>
+      <c r="C26" s="4">
+        <f>VLOOKUP(B26, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000025</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G26">
+        <v>10110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000025::bigint, null::varchar, 'JL. Medan Merdeka Barat 21 - Gambir Jakarta Pusat'::varchar, null::bigint, '10110'::varchar); </v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f>'SEED - TblInstitution'!B27:B81</f>
+        <v>Industri Telekomunikasi Indonesia</v>
+      </c>
+      <c r="C27" s="4">
+        <f>VLOOKUP(B27, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000026</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000026::bigint, null::varchar, 'Jl. Moch Toha 77 Bandung 40253 Bandung'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f>'SEED - TblInstitution'!B28:B82</f>
+        <v>Infrastruktur Bisnis Sejahtera</v>
+      </c>
+      <c r="C28" s="4">
+        <f>VLOOKUP(B28, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000027</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G28">
+        <v>10350</v>
+      </c>
+      <c r="H28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000027::bigint, null::varchar, 'JL. RIAU NO. 23 RT.009/05 GONDANGDIA MENTENG JAKARTA PUSAT  DKI JAKARTA RAYA'::varchar, null::bigint, '10350'::varchar); </v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f>'SEED - TblInstitution'!B29:B83</f>
+        <v>Intershop Prima Center</v>
+      </c>
+      <c r="C29" s="4">
+        <f>VLOOKUP(B29, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000028</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29">
+        <v>14430</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000028::bigint, null::varchar, 'Gedung WTC Mangga Dua Lt. 11Jl. Mangga Dua Raya Kav. 8Jakarta Utara'::varchar, null::bigint, '14430'::varchar); </v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f>'SEED - TblInstitution'!B30:B84</f>
+        <v>Inti Bangun Sejahtera</v>
+      </c>
+      <c r="C30" s="4">
+        <f>VLOOKUP(B30, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000029</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="G30">
+        <v>10350</v>
+      </c>
+      <c r="H30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000029::bigint, null::varchar, 'Jl. Riau No.23 Menteng Jakarta'::varchar, null::bigint, '10350'::varchar); </v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f>'SEED - TblInstitution'!B31:B85</f>
+        <v>Karya Mitra Nugraha</v>
+      </c>
+      <c r="C31" s="4">
+        <f>VLOOKUP(B31, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000030</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="G31">
+        <v>50231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000030::bigint, null::varchar, 'Jl Veteran 39,Bendungan,Gajah Mungkur, Semarang'::varchar, null::bigint, '50231'::varchar); </v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f>'SEED - TblInstitution'!B32:B87</f>
+        <v>Lektrika Karyatama</v>
+      </c>
+      <c r="C32" s="4">
+        <f>VLOOKUP(B32, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000031</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32">
+        <v>12450</v>
+      </c>
+      <c r="H32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000031::bigint, null::varchar, 'Jl. Margasatwa Raya No. 88 Pondok Labu, Jakarta Selatan'::varchar, null::bigint, '12450'::varchar); </v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f>'SEED - TblInstitution'!B33:B88</f>
+        <v>Link Net</v>
+      </c>
+      <c r="C33" s="4">
+        <f>VLOOKUP(B33, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000032</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G33">
+        <v>12950</v>
+      </c>
+      <c r="H33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000032::bigint, null::varchar, 'Citra Graha Lt.4 Suite 403 Jln.Jend Gatot Subroto Kav. 35-36 Kuningan Timur, Setiabudi,Jaksel,DKI Jakarta Raya'::varchar, null::bigint, '12950'::varchar); </v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f>'SEED - TblInstitution'!B34:B89</f>
+        <v>Lintas Technology</v>
+      </c>
+      <c r="C34" s="4">
+        <f>VLOOKUP(B34, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000033</v>
+      </c>
+      <c r="H34" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000033::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f>'SEED - TblInstitution'!B35:B90</f>
+        <v>Lintas Teknologi Indonesia</v>
+      </c>
+      <c r="C35" s="4">
+        <f>VLOOKUP(B35, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000034</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="G35">
+        <v>12820</v>
+      </c>
+      <c r="H35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000034::bigint, null::varchar, 'Menara MTH Lantai 16 JL. MT HARYONO KAV. 23 JAKARTA'::varchar, null::bigint, '12820'::varchar); </v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f>'SEED - TblInstitution'!B36:B91</f>
+        <v>Mega Eltra</v>
+      </c>
+      <c r="C36" s="4">
+        <f>VLOOKUP(B36, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000035</v>
+      </c>
+      <c r="H36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000035::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f>'SEED - TblInstitution'!B37:B92</f>
+        <v>Megatel</v>
+      </c>
+      <c r="C37" s="4">
+        <f>VLOOKUP(B37, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000036</v>
+      </c>
+      <c r="H37" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000036::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f>'SEED - TblInstitution'!B38:B93</f>
+        <v>Nokia</v>
+      </c>
+      <c r="C38" s="4">
+        <f>VLOOKUP(B38, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000037</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="H38" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000037::bigint, null::varchar, 'Jl. Gatot Subroto'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f>'SEED - TblInstitution'!B39:B94</f>
+        <v>Nokia Siemens Network</v>
+      </c>
+      <c r="C39" s="4">
+        <f>VLOOKUP(B39, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000038</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000038::bigint, null::varchar, 'Jakarta'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>'SEED - TblInstitution'!B40:B95</f>
+        <v>Pertamina Geothermal Energy</v>
+      </c>
+      <c r="C40" s="4">
+        <f>VLOOKUP(B40, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000039</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40">
+        <v>10340</v>
+      </c>
+      <c r="H40" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000039::bigint, null::varchar, 'Menara Cakrawala Lt. 08, Jl. MH Thamrin No. 9 Jakarta Pusat'::varchar, null::bigint, '10340'::varchar); </v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>'SEED - TblInstitution'!B40:B96</f>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C41" s="4">
+        <f>VLOOKUP(B41, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D41" t="s">
+        <v>513</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G41">
+        <v>29461</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Batam'::varchar, 'Jln. Engku Putri No. 3 Batam Center Batam'::varchar, null::bigint, '29461'::varchar); </v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>B41</f>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C42" s="4">
+        <f>VLOOKUP(B42, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D42" t="s">
+        <v>502</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P3B Jawa Bali APP Cawang'::varchar, 'Jl. Cililitan Besar No. 1 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f>B42</f>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C43" s="4">
+        <f>VLOOKUP(B43, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D43" t="s">
+        <v>501</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="H43" t="s">
+        <v>248</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan V'::varchar, 'JL. Ehave, Gandul - Kec. Cinere Kota Depok'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f t="shared" ref="B44:B50" si="1">B43</f>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C44" s="4">
+        <f>VLOOKUP(B44, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D44" t="s">
+        <v>255</v>
+      </c>
+      <c r="H44" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Nusa Tenggara'::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C45" s="4">
+        <f>VLOOKUP(B45, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D45" t="s">
+        <v>500</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G45">
+        <v>90222</v>
+      </c>
+      <c r="H45" t="s">
+        <v>259</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan XIII'::varchar, 'Jl. Letjend Hertasning, Panakkukang Makasar'::varchar, null::bigint, '90222'::varchar); </v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C46" s="4">
+        <f>VLOOKUP(B46, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D46" t="s">
+        <v>514</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G46">
+        <v>50501</v>
+      </c>
+      <c r="H46" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P2B Jawa Bali APB Jawa Tengah &amp; DIY'::varchar, 'Jl.Jendral Sudirman KM 23, Ungaran. Komplek PLN Gedung A Ungaran'::varchar, null::bigint, '50501'::varchar); </v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C47" s="4">
+        <f>VLOOKUP(B47, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D47" t="s">
+        <v>515</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan II'::varchar, 'JL. Dr. Cipto No. 12 Medan'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C48" s="4">
+        <f>VLOOKUP(B48, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G48">
+        <v>11420</v>
+      </c>
+      <c r="H48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Interkoneksi Sumatera Jawa'::varchar, 'Jl. Aipda K.S. Tubun I/2 Lantai 3 Petamburan - Jakarta Barat'::varchar, null::bigint, '11420'::varchar); </v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C49" s="4">
+        <f>VLOOKUP(B49, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan X'::varchar, 'Jl. MT Haryono No. 384 Balikpapan 76114 Kalimantan Timur'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C50" s="4">
+        <f>VLOOKUP(B50, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D50" t="s">
+        <v>518</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G50">
+        <v>55232</v>
+      </c>
+      <c r="H50" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan JBT II '::varchar, 'Jl. Margo Utomo(d/h P. Mangkubumi) No. 16 Yogyakarta'::varchar, null::bigint, '55232'::varchar); </v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <f>'SEED - TblInstitution'!B42</f>
+        <v>Protelindo</v>
+      </c>
+      <c r="C51" s="4">
+        <f>VLOOKUP(B51, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000041</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G51">
+        <v>10310</v>
+      </c>
+      <c r="H51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000041::bigint, null::varchar, 'Menara BCA, 55th Floor Jl. M.H. Thamrin No. 1 Jakarta'::varchar, null::bigint, '10310'::varchar); </v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f>'SEED - TblInstitution'!B43</f>
+        <v>Ramayana Lestari Sentosa</v>
+      </c>
+      <c r="C52" s="4">
+        <f>VLOOKUP(B52, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000042</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H52" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000042::bigint, null::varchar, 'Jl. KH Wahid Hasyim 220 A-B, Kampung Bali - Tanah Abang Jakarta '::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="str">
+        <f>'SEED - TblInstitution'!B44</f>
+        <v>Rekadaya Elektrika</v>
+      </c>
+      <c r="C53" s="4">
+        <f>VLOOKUP(B53, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000043</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G53">
+        <v>10230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>317</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000043::bigint, null::varchar, 'Gedung Bank Mandiri Lt. 6 Jl. Tanjung Karang No.3-4A Jakarta Pusat'::varchar, null::bigint, '10230'::varchar); </v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f>'SEED - TblInstitution'!B45</f>
+        <v>Sejahtera Mandiri</v>
+      </c>
+      <c r="C54" s="4">
+        <f>VLOOKUP(B54, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000044</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H54" t="s">
+        <v>332</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000044::bigint, null::varchar, 'Jl. Batangan - Jaken Km. 04 No. 199 Kuniran Kec. Batangan Kab. Pati jawa Tengah'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f>'SEED - TblInstitution'!B46</f>
+        <v>Sigindo Kemas</v>
+      </c>
+      <c r="C55" s="4">
+        <f>VLOOKUP(B55, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000045</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G55">
+        <v>60244</v>
+      </c>
+      <c r="H55" t="s">
+        <v>339</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000045::bigint, null::varchar, 'Kompleks Pertokoan Mangga Dua Blok A7 No 6-7 Jl. Jagir Wonokromo 100, Surabaya'::varchar, null::bigint, '60244'::varchar); </v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f>'SEED - TblInstitution'!B47</f>
+        <v>Smart Telecom</v>
+      </c>
+      <c r="C56" s="4">
+        <f>VLOOKUP(B56, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000046</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="G56">
+        <v>15116</v>
+      </c>
+      <c r="H56" t="s">
+        <v>345</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000046::bigint, null::varchar, 'Jl. Agus Salim No.45 Menteng, Kebon Sirih, Jakarta Pusat'::varchar, null::bigint, '15116'::varchar); </v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="str">
+        <f>'SEED - TblInstitution'!B48</f>
+        <v>Telekomunikasi Indonesia (Telkom)</v>
+      </c>
+      <c r="C57" s="4">
+        <f>VLOOKUP(B57, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000047</v>
+      </c>
+      <c r="D57" t="s">
+        <v>510</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H57" t="s">
+        <v>352</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Bandung'::varchar, 'JL. Japati No. 1 Bandung'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="str">
+        <f>B57</f>
+        <v>Telekomunikasi Indonesia (Telkom)</v>
+      </c>
+      <c r="C58" s="4">
+        <f>VLOOKUP(B58, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000047</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="H58" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Jakarta'::varchar, 'Di Jakarta'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f>'SEED - TblInstitution'!B49</f>
+        <v>Telekomunikasi Selular (Telkomsel)</v>
+      </c>
+      <c r="C59" s="4">
+        <f>VLOOKUP(B59, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000048</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G59">
+        <v>12710</v>
+      </c>
+      <c r="H59" t="s">
+        <v>365</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000048::bigint, null::varchar, 'Gedung TELKOM Landmark Tower Menara 1 LT. 1-20, JL. Jend. Gatot Subroto Kav. 52 Kuningan Barat Mampang Prapatan Jakarta Selatan DKI Jakarta'::varchar, null::bigint, '12710'::varchar); </v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f>'SEED - TblInstitution'!B50</f>
+        <v>Telkom Akses</v>
+      </c>
+      <c r="C60" s="4">
+        <f>VLOOKUP(B60, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000049</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="G60">
+        <v>11440</v>
+      </c>
+      <c r="H60" t="s">
+        <v>371</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000049::bigint, null::varchar, 'Gedung Telkom Jakarta Barat cq Unit Finance Operation. Jl. S.Parman Kav.8 Jakarta Barat'::varchar, null::bigint, '11440'::varchar); </v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <f>'SEED - TblInstitution'!B51</f>
+        <v>Tosan Permai Lestari</v>
+      </c>
+      <c r="C61" s="4">
+        <f>VLOOKUP(B61, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000050</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61">
+        <v>90174</v>
+      </c>
+      <c r="H61" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000050::bigint, null::varchar, 'JL. HOS Cokroaminoto 38 lt V Makassar'::varchar, null::bigint, '90174'::varchar); </v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
+        <f>'SEED - TblInstitution'!B52</f>
+        <v>Tower Capital Indonesia</v>
+      </c>
+      <c r="C62" s="4">
+        <f>VLOOKUP(B62, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000051</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="G62">
+        <v>12150</v>
+      </c>
+      <c r="H62" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000051::bigint, null::varchar, 'Duta Mas Fatmawati Blok B1 No.20 Jl.R.S Fatmawati 39 Jakarta'::varchar, null::bigint, '12150'::varchar); </v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
+        <f>'SEED - TblInstitution'!B53</f>
+        <v>Waskita Karya</v>
+      </c>
+      <c r="C63" s="4">
+        <f>VLOOKUP(B63, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000052</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H63" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000052::bigint, null::varchar, 'Jl. M. T. Haryono Kav. No. 10 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f>'SEED - TblInstitution'!B54</f>
+        <v>Widodo Karya Sejahtera</v>
+      </c>
+      <c r="C64" s="4">
+        <f>VLOOKUP(B64, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000053</v>
+      </c>
+      <c r="H64" t="s">
+        <v>401</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000053::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
+        <f>'SEED - TblInstitution'!B55</f>
+        <v>XL Axiata</v>
+      </c>
+      <c r="C65" s="4">
+        <f>VLOOKUP(B65, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000054</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G65">
+        <v>12950</v>
+      </c>
+      <c r="H65" t="s">
+        <v>407</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000054::bigint, null::varchar, 'XL Axiata Tower Jl. H.R. Rasuna Said X5 Kav.11-12 Kuningan Timur, Setiabudi Jakarta Selatan'::varchar, null::bigint, '12950'::varchar); </v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f>'SEED - TblInstitution'!B56</f>
+        <v>XL Mitrayasa</v>
+      </c>
+      <c r="C66" s="4">
+        <f>VLOOKUP(B66, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000055</v>
+      </c>
+      <c r="H66" t="s">
+        <v>414</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000055::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
+        <f>'SEED - TblInstitution'!B57</f>
+        <v>ZTE Indonesia</v>
+      </c>
+      <c r="C67" s="4">
+        <f>VLOOKUP(B67, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000056</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67">
+        <v>12950</v>
+      </c>
+      <c r="H67" t="s">
+        <v>416</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" ref="J67" si="2">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C67, "::bigint, ", IF(EXACT(D67, ""), "null", "'"&amp;D67&amp;"'"), "::varchar, ", IF(EXACT(E67, ""), "null", "'"&amp;E67&amp;"'"), "::varchar, ", IF(EXACT(F67, ""), "null", F67),"::bigint, ", IF(EXACT(G67, ""), "null", "'"&amp;G67&amp;"'"), "::varchar); ")</f>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000056::bigint, null::varchar, 'GD THE EAST BUILDING LT.26-27 JL. Lingkar Mega Kuningan Blok E3.2 No.1 Setiabudi Jakarta Selatan DKI Jakarta Raya'::varchar, null::bigint, '12950'::varchar); </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8349,18 +8647,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>434</v>
@@ -8371,18 +8669,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>435</v>
@@ -8393,7 +8691,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>436</v>
@@ -8404,7 +8702,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -8415,7 +8713,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
@@ -8426,18 +8724,18 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -8448,18 +8746,18 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>66</v>
@@ -8470,7 +8768,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>71</v>
@@ -8481,7 +8779,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>442</v>
@@ -8492,7 +8790,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>443</v>
@@ -8503,29 +8801,29 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>107</v>
@@ -8536,7 +8834,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>446</v>
@@ -8547,29 +8845,29 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>449</v>
@@ -8580,40 +8878,40 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>452</v>
@@ -8624,7 +8922,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>165</v>
@@ -8635,7 +8933,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>453</v>
@@ -8646,7 +8944,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>179</v>
@@ -8657,7 +8955,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>186</v>
@@ -8668,7 +8966,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>454</v>
@@ -8679,7 +8977,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>455</v>
@@ -8690,7 +8988,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>201</v>
@@ -8701,7 +8999,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>456</v>
@@ -8712,7 +9010,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>457</v>
@@ -8723,7 +9021,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>216</v>
@@ -8734,7 +9032,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>458</v>
@@ -8745,7 +9043,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>222</v>
@@ -8756,18 +9054,18 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>232</v>
@@ -8778,7 +9076,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>301</v>
@@ -8789,18 +9087,18 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>460</v>
@@ -8811,7 +9109,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>316</v>
@@ -8822,18 +9120,18 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>338</v>
@@ -8844,7 +9142,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>344</v>
@@ -8855,29 +9153,29 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>468</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>462</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>377</v>
@@ -8888,7 +9186,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>463</v>
@@ -8899,7 +9197,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>389</v>
@@ -8910,18 +9208,18 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>441</v>
@@ -8932,7 +9230,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>440</v>
@@ -8943,7 +9241,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>439</v>
@@ -8954,7 +9252,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>438</v>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master - Institution.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master - Institution.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SQL Generator\Data Initial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ERPReborn\Documentation\Documents\SQL Generator\Data Initial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" tabRatio="739" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0" shapeId="0">
+    <comment ref="H47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0" shapeId="0">
+    <comment ref="H58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="604">
   <si>
     <t>ABHIMATA CITRA ABADI</t>
   </si>
@@ -1937,6 +1937,9 @@
   </si>
   <si>
     <t>Pertamina Geothermal Energy</t>
+  </si>
+  <si>
+    <t>Kantor Pusat</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -5099,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6304,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6344,7 +6347,7 @@
         <v>ACA</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E64" si="0">CONCATENATE("PERFORM ""SchData-OLTP-CustomerRelation"".""Func_TblCustomer_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID,  ", IF(EXACT(B3, ""), "null", B3), "::bigint, ", IF(EXACT(C3, ""), "null", "'"&amp;C3&amp;"'"), "::varchar); ")</f>
+        <f t="shared" ref="E3:E65" si="0">CONCATENATE("PERFORM ""SchData-OLTP-CustomerRelation"".""Func_TblCustomer_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID,  ", IF(EXACT(B3, ""), "null", B3), "::bigint, ", IF(EXACT(C3, ""), "null", "'"&amp;C3&amp;"'"), "::varchar); ")</f>
         <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000005::bigint, 'ACA'::varchar); </v>
       </c>
     </row>
@@ -6796,11 +6799,11 @@
       </c>
       <c r="C38" t="str">
         <f>'SEED - TblInstitutionBranch'!H41</f>
-        <v>PLN BA</v>
+        <v>PLN</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000040::bigint, 'PLN BA'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000040::bigint, 'PLN'::varchar); </v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -6809,11 +6812,11 @@
       </c>
       <c r="C39" t="str">
         <f>'SEED - TblInstitutionBranch'!H42</f>
-        <v>PLNCA</v>
+        <v>PLN BA</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000041::bigint, 'PLNCA'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000041::bigint, 'PLN BA'::varchar); </v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -6822,11 +6825,11 @@
       </c>
       <c r="C40" t="str">
         <f>'SEED - TblInstitutionBranch'!H43</f>
-        <v>PLN JK</v>
+        <v>PLNCA</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000042::bigint, 'PLN JK'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000042::bigint, 'PLNCA'::varchar); </v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -6835,11 +6838,11 @@
       </c>
       <c r="C41" t="str">
         <f>'SEED - TblInstitutionBranch'!H44</f>
-        <v>PLNma</v>
+        <v>PLN JK</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000043::bigint, 'PLNma'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000043::bigint, 'PLN JK'::varchar); </v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -6848,11 +6851,11 @@
       </c>
       <c r="C42" t="str">
         <f>'SEED - TblInstitutionBranch'!H45</f>
-        <v>PLN MA</v>
+        <v>PLNma</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000044::bigint, 'PLN MA'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000044::bigint, 'PLNma'::varchar); </v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -6861,11 +6864,11 @@
       </c>
       <c r="C43" t="str">
         <f>'SEED - TblInstitutionBranch'!H46</f>
-        <v>PLNJB</v>
+        <v>PLN MA</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000045::bigint, 'PLNJB'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000045::bigint, 'PLN MA'::varchar); </v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -6874,11 +6877,11 @@
       </c>
       <c r="C44" t="str">
         <f>'SEED - TblInstitutionBranch'!H47</f>
-        <v>PLNMD</v>
+        <v>PLNJB</v>
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000046::bigint, 'PLNMD'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000046::bigint, 'PLNJB'::varchar); </v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -6887,11 +6890,11 @@
       </c>
       <c r="C45" t="str">
         <f>'SEED - TblInstitutionBranch'!H48</f>
-        <v>PLNIJ</v>
+        <v>PLNMD</v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000047::bigint, 'PLNIJ'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000047::bigint, 'PLNMD'::varchar); </v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -6900,11 +6903,11 @@
       </c>
       <c r="C46" t="str">
         <f>'SEED - TblInstitutionBranch'!H49</f>
-        <v>PLN SCADA</v>
+        <v>PLNIJ</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000048::bigint, 'PLN SCADA'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000048::bigint, 'PLNIJ'::varchar); </v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -6913,11 +6916,11 @@
       </c>
       <c r="C47" t="str">
         <f>'SEED - TblInstitutionBranch'!H50</f>
-        <v>PLNYK</v>
+        <v>PLN SCADA</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000049::bigint, 'PLNYK'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000049::bigint, 'PLN SCADA'::varchar); </v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -6926,11 +6929,11 @@
       </c>
       <c r="C48" t="str">
         <f>'SEED - TblInstitutionBranch'!H51</f>
-        <v>PROTEL</v>
+        <v>PLNYK</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000050::bigint, 'PROTEL'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000050::bigint, 'PLNYK'::varchar); </v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -6939,11 +6942,11 @@
       </c>
       <c r="C49" t="str">
         <f>'SEED - TblInstitutionBranch'!H52</f>
-        <v>RAM</v>
+        <v>PROTEL</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000051::bigint, 'RAM'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000051::bigint, 'PROTEL'::varchar); </v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -6952,11 +6955,11 @@
       </c>
       <c r="C50" t="str">
         <f>'SEED - TblInstitutionBranch'!H53</f>
-        <v>RDEL</v>
+        <v>RAM</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000052::bigint, 'RDEL'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000052::bigint, 'RAM'::varchar); </v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -6965,11 +6968,11 @@
       </c>
       <c r="C51" t="str">
         <f>'SEED - TblInstitutionBranch'!H54</f>
-        <v>CVSM</v>
+        <v>RDEL</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000053::bigint, 'CVSM'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000053::bigint, 'RDEL'::varchar); </v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -6978,11 +6981,11 @@
       </c>
       <c r="C52" t="str">
         <f>'SEED - TblInstitutionBranch'!H55</f>
-        <v>SGK</v>
+        <v>CVSM</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000054::bigint, 'SGK'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000054::bigint, 'CVSM'::varchar); </v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -6991,11 +6994,11 @@
       </c>
       <c r="C53" t="str">
         <f>'SEED - TblInstitutionBranch'!H56</f>
-        <v>SMA</v>
+        <v>SGK</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000055::bigint, 'SMA'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000055::bigint, 'SGK'::varchar); </v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -7004,11 +7007,11 @@
       </c>
       <c r="C54" t="str">
         <f>'SEED - TblInstitutionBranch'!H57</f>
-        <v>INTEL</v>
+        <v>SMA</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000056::bigint, 'INTEL'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000056::bigint, 'SMA'::varchar); </v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -7017,11 +7020,11 @@
       </c>
       <c r="C55" t="str">
         <f>'SEED - TblInstitutionBranch'!H58</f>
-        <v>Telkom jkt</v>
+        <v>INTEL</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000057::bigint, 'Telkom jkt'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000057::bigint, 'INTEL'::varchar); </v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -7030,11 +7033,11 @@
       </c>
       <c r="C56" t="str">
         <f>'SEED - TblInstitutionBranch'!H59</f>
-        <v>TSEL</v>
+        <v>Telkom jkt</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000058::bigint, 'TSEL'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000058::bigint, 'Telkom jkt'::varchar); </v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -7043,11 +7046,11 @@
       </c>
       <c r="C57" t="str">
         <f>'SEED - TblInstitutionBranch'!H60</f>
-        <v>TA</v>
+        <v>TSEL</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000059::bigint, 'TA'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000059::bigint, 'TSEL'::varchar); </v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -7056,11 +7059,11 @@
       </c>
       <c r="C58" t="str">
         <f>'SEED - TblInstitutionBranch'!H61</f>
-        <v>TOS</v>
+        <v>TA</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000060::bigint, 'TOS'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000060::bigint, 'TA'::varchar); </v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -7069,11 +7072,11 @@
       </c>
       <c r="C59" t="str">
         <f>'SEED - TblInstitutionBranch'!H62</f>
-        <v>TCI</v>
+        <v>TOS</v>
       </c>
       <c r="E59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000061::bigint, 'TCI'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000061::bigint, 'TOS'::varchar); </v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -7082,11 +7085,11 @@
       </c>
       <c r="C60" t="str">
         <f>'SEED - TblInstitutionBranch'!H63</f>
-        <v>WAS</v>
+        <v>TCI</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000062::bigint, 'WAS'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000062::bigint, 'TCI'::varchar); </v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -7095,11 +7098,11 @@
       </c>
       <c r="C61" t="str">
         <f>'SEED - TblInstitutionBranch'!H64</f>
-        <v>WKS</v>
+        <v>WAS</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000063::bigint, 'WKS'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000063::bigint, 'WAS'::varchar); </v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -7108,11 +7111,11 @@
       </c>
       <c r="C62" t="str">
         <f>'SEED - TblInstitutionBranch'!H65</f>
-        <v>XL</v>
+        <v>WKS</v>
       </c>
       <c r="E62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000064::bigint, 'XL'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000064::bigint, 'WKS'::varchar); </v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -7121,11 +7124,11 @@
       </c>
       <c r="C63" t="str">
         <f>'SEED - TblInstitutionBranch'!H66</f>
-        <v>XLM</v>
+        <v>XL</v>
       </c>
       <c r="E63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000065::bigint, 'XLM'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000065::bigint, 'XL'::varchar); </v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -7134,15 +7137,25 @@
       </c>
       <c r="C64" t="str">
         <f>'SEED - TblInstitutionBranch'!H67</f>
+        <v>XLM</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000066::bigint, 'XLM'::varchar); </v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>124000000000067</v>
+      </c>
+      <c r="C65" t="str">
+        <f>'SEED - TblInstitutionBranch'!H68</f>
         <v>ZTE</v>
       </c>
-      <c r="E64" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000066::bigint, 'ZTE'::varchar); </v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-CustomerRelation"."Func_TblCustomer_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID,  124000000000067::bigint, 'ZTE'::varchar); </v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7151,10 +7164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J67"/>
+  <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7162,8 +7175,8 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="135.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
@@ -7180,7 +7193,7 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
-        <f>'SEED - TblInstitution'!B2:B57</f>
+        <f>'SEED - TblInstitution'!B2</f>
         <v>QDC Technologies</v>
       </c>
       <c r="C2" s="4">
@@ -7203,7 +7216,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
-        <f>'SEED - TblInstitution'!B3:B58</f>
+        <f>'SEED - TblInstitution'!B3</f>
         <v>Infra Media Dinamika</v>
       </c>
       <c r="C3" s="4">
@@ -7226,7 +7239,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
-        <f>'SEED - TblInstitution'!B4:B59</f>
+        <f>'SEED - TblInstitution'!B4</f>
         <v>Daya Hidro Dinamika</v>
       </c>
       <c r="C4" s="4">
@@ -7249,7 +7262,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
-        <f>'SEED - TblInstitution'!B5:B86</f>
+        <f>'SEED - TblInstitution'!B5</f>
         <v>KHA</v>
       </c>
       <c r="C5" s="4">
@@ -7272,7 +7285,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
-        <f>'SEED - TblInstitution'!B6:B87</f>
+        <f>'SEED - TblInstitution'!B6</f>
         <v>Abhitama Citra Abadi</v>
       </c>
       <c r="C6" s="4">
@@ -7295,7 +7308,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
-        <f>'SEED - TblInstitution'!B7:B88</f>
+        <f>'SEED - TblInstitution'!B7</f>
         <v>Abiyasa Tunggal</v>
       </c>
       <c r="C7" s="4">
@@ -7312,7 +7325,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
-        <f>'SEED - TblInstitution'!B8:B62</f>
+        <f>'SEED - TblInstitution'!B8</f>
         <v>Aplika Nusa Lintas Arta</v>
       </c>
       <c r="C8" s="4">
@@ -7335,7 +7348,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
-        <f>'SEED - TblInstitution'!B9:B63</f>
+        <f>'SEED - TblInstitution'!B9</f>
         <v>Bakrie Telecom</v>
       </c>
       <c r="C9" s="4">
@@ -7358,7 +7371,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
-        <f>'SEED - TblInstitution'!B10:B64</f>
+        <f>'SEED - TblInstitution'!B10</f>
         <v>Bukaka Teknik Utama</v>
       </c>
       <c r="C10" s="4">
@@ -7381,7 +7394,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
-        <f>'SEED - TblInstitution'!B11:B65</f>
+        <f>'SEED - TblInstitution'!B11</f>
         <v>Citra Panji Manunggal</v>
       </c>
       <c r="C11" s="4">
@@ -7404,7 +7417,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
-        <f>'SEED - TblInstitution'!B12:B66</f>
+        <f>'SEED - TblInstitution'!B12</f>
         <v>Dayamitra Telekomunikasi</v>
       </c>
       <c r="C12" s="4">
@@ -7424,7 +7437,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
-        <f>'SEED - TblInstitution'!B13:B67</f>
+        <f>'SEED - TblInstitution'!B13</f>
         <v>Departemen Dalam Negeri</v>
       </c>
       <c r="C13" s="4">
@@ -7444,7 +7457,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
-        <f>'SEED - TblInstitution'!B14:B68</f>
+        <f>'SEED - TblInstitution'!B14</f>
         <v>Duta Hita Jaya</v>
       </c>
       <c r="C14" s="4">
@@ -7468,7 +7481,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
-        <f>'SEED - TblInstitution'!B15:B69</f>
+        <f>'SEED - TblInstitution'!B15</f>
         <v>Duta Pertiwi</v>
       </c>
       <c r="C15" s="4">
@@ -7492,7 +7505,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f>'SEED - TblInstitution'!B16:B70</f>
+        <f>'SEED - TblInstitution'!B16</f>
         <v>Duta Realtindo Perkasa</v>
       </c>
       <c r="C16" s="4">
@@ -7516,7 +7529,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
-        <f>'SEED - TblInstitution'!B17:B71</f>
+        <f>'SEED - TblInstitution'!B17</f>
         <v>Energi Mekar Lestari</v>
       </c>
       <c r="C17" s="4">
@@ -7539,7 +7552,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
-        <f>'SEED - TblInstitution'!B18:B72</f>
+        <f>'SEED - TblInstitution'!B18</f>
         <v>Ericson</v>
       </c>
       <c r="C18" s="4">
@@ -7556,7 +7569,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
-        <f>'SEED - TblInstitution'!B19:B73</f>
+        <f>'SEED - TblInstitution'!B19</f>
         <v>Esa Mitra Teknologi</v>
       </c>
       <c r="C19" s="4">
@@ -7576,7 +7589,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
-        <f>'SEED - TblInstitution'!B20:B74</f>
+        <f>'SEED - TblInstitution'!B20</f>
         <v>First Media</v>
       </c>
       <c r="C20" s="4">
@@ -7596,7 +7609,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
-        <f>'SEED - TblInstitution'!B21:B75</f>
+        <f>'SEED - TblInstitution'!B21</f>
         <v xml:space="preserve">Flexi </v>
       </c>
       <c r="C21" s="4">
@@ -7616,7 +7629,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
-        <f>'SEED - TblInstitution'!B22:B76</f>
+        <f>'SEED - TblInstitution'!B22</f>
         <v>Flexi Mitrayasa</v>
       </c>
       <c r="C22" s="4">
@@ -7633,7 +7646,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
-        <f>'SEED - TblInstitution'!B23:B77</f>
+        <f>'SEED - TblInstitution'!B23</f>
         <v>Huawei Tech Investment</v>
       </c>
       <c r="C23" s="4">
@@ -7653,7 +7666,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <f>'SEED - TblInstitution'!B24:B78</f>
+        <f>'SEED - TblInstitution'!B24</f>
         <v>Hutchinson 3 Indonesia</v>
       </c>
       <c r="C24" s="4">
@@ -7676,7 +7689,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
-        <f>'SEED - TblInstitution'!B25:B79</f>
+        <f>'SEED - TblInstitution'!B25</f>
         <v>Indoprimasel</v>
       </c>
       <c r="C25" s="4">
@@ -7693,7 +7706,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
-        <f>'SEED - TblInstitution'!B26:B80</f>
+        <f>'SEED - TblInstitution'!B26</f>
         <v>Indosat</v>
       </c>
       <c r="C26" s="4">
@@ -7716,7 +7729,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
-        <f>'SEED - TblInstitution'!B27:B81</f>
+        <f>'SEED - TblInstitution'!B27</f>
         <v>Industri Telekomunikasi Indonesia</v>
       </c>
       <c r="C27" s="4">
@@ -7736,7 +7749,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
-        <f>'SEED - TblInstitution'!B28:B82</f>
+        <f>'SEED - TblInstitution'!B28</f>
         <v>Infrastruktur Bisnis Sejahtera</v>
       </c>
       <c r="C28" s="4">
@@ -7759,7 +7772,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
-        <f>'SEED - TblInstitution'!B29:B83</f>
+        <f>'SEED - TblInstitution'!B29</f>
         <v>Intershop Prima Center</v>
       </c>
       <c r="C29" s="4">
@@ -7782,7 +7795,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
-        <f>'SEED - TblInstitution'!B30:B84</f>
+        <f>'SEED - TblInstitution'!B30</f>
         <v>Inti Bangun Sejahtera</v>
       </c>
       <c r="C30" s="4">
@@ -7805,7 +7818,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
-        <f>'SEED - TblInstitution'!B31:B85</f>
+        <f>'SEED - TblInstitution'!B31</f>
         <v>Karya Mitra Nugraha</v>
       </c>
       <c r="C31" s="4">
@@ -7828,7 +7841,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
-        <f>'SEED - TblInstitution'!B32:B87</f>
+        <f>'SEED - TblInstitution'!B32</f>
         <v>Lektrika Karyatama</v>
       </c>
       <c r="C32" s="4">
@@ -7851,7 +7864,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
-        <f>'SEED - TblInstitution'!B33:B88</f>
+        <f>'SEED - TblInstitution'!B33</f>
         <v>Link Net</v>
       </c>
       <c r="C33" s="4">
@@ -7874,7 +7887,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
-        <f>'SEED - TblInstitution'!B34:B89</f>
+        <f>'SEED - TblInstitution'!B34</f>
         <v>Lintas Technology</v>
       </c>
       <c r="C34" s="4">
@@ -7891,7 +7904,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
-        <f>'SEED - TblInstitution'!B35:B90</f>
+        <f>'SEED - TblInstitution'!B35</f>
         <v>Lintas Teknologi Indonesia</v>
       </c>
       <c r="C35" s="4">
@@ -7914,7 +7927,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
-        <f>'SEED - TblInstitution'!B36:B91</f>
+        <f>'SEED - TblInstitution'!B36</f>
         <v>Mega Eltra</v>
       </c>
       <c r="C36" s="4">
@@ -7931,7 +7944,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
-        <f>'SEED - TblInstitution'!B37:B92</f>
+        <f>'SEED - TblInstitution'!B37</f>
         <v>Megatel</v>
       </c>
       <c r="C37" s="4">
@@ -7948,7 +7961,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
-        <f>'SEED - TblInstitution'!B38:B93</f>
+        <f>'SEED - TblInstitution'!B38</f>
         <v>Nokia</v>
       </c>
       <c r="C38" s="4">
@@ -7968,7 +7981,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
-        <f>'SEED - TblInstitution'!B39:B94</f>
+        <f>'SEED - TblInstitution'!B39</f>
         <v>Nokia Siemens Network</v>
       </c>
       <c r="C39" s="4">
@@ -7988,7 +8001,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
-        <f>'SEED - TblInstitution'!B40:B95</f>
+        <f>'SEED - TblInstitution'!B40</f>
         <v>Pertamina Geothermal Energy</v>
       </c>
       <c r="C40" s="4">
@@ -8012,7 +8025,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
-        <f>'SEED - TblInstitution'!B40:B96</f>
+        <f>'SEED - TblInstitution'!B41</f>
         <v>Pelayanan Listrik Nasional (PLN)</v>
       </c>
       <c r="C41" s="4">
@@ -8020,20 +8033,14 @@
         <v>123000000000040</v>
       </c>
       <c r="D41" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="G41">
-        <v>29461</v>
+        <v>603</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="J41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Batam'::varchar, 'Jln. Engku Putri No. 3 Batam Center Batam'::varchar, null::bigint, '29461'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Kantor Pusat'::varchar, null::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -8046,22 +8053,25 @@
         <v>123000000000040</v>
       </c>
       <c r="D42" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
+      </c>
+      <c r="G42">
+        <v>29461</v>
       </c>
       <c r="H42" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="J42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P3B Jawa Bali APP Cawang'::varchar, 'Jl. Cililitan Besar No. 1 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Batam'::varchar, 'Jln. Engku Putri No. 3 Batam Center Batam'::varchar, null::bigint, '29461'::varchar); </v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
-        <f>B42</f>
+        <f t="shared" ref="B43:B51" si="1">B42</f>
         <v>Pelayanan Listrik Nasional (PLN)</v>
       </c>
       <c r="C43" s="4">
@@ -8069,22 +8079,22 @@
         <v>123000000000040</v>
       </c>
       <c r="D43" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan V'::varchar, 'JL. Ehave, Gandul - Kec. Cinere Kota Depok'::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P3B Jawa Bali APP Cawang'::varchar, 'Jl. Cililitan Besar No. 1 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
-        <f t="shared" ref="B44:B50" si="1">B43</f>
+        <f t="shared" si="1"/>
         <v>Pelayanan Listrik Nasional (PLN)</v>
       </c>
       <c r="C44" s="4">
@@ -8092,14 +8102,17 @@
         <v>123000000000040</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>501</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Nusa Tenggara'::varchar, null::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan V'::varchar, 'JL. Ehave, Gandul - Kec. Cinere Kota Depok'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -8112,24 +8125,18 @@
         <v>123000000000040</v>
       </c>
       <c r="D45" t="s">
-        <v>500</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G45">
-        <v>90222</v>
+        <v>255</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan XIII'::varchar, 'Jl. Letjend Hertasning, Panakkukang Makasar'::varchar, null::bigint, '90222'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Nusa Tenggara'::varchar, null::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="str">
+      <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>Pelayanan Listrik Nasional (PLN)</v>
       </c>
@@ -8138,24 +8145,24 @@
         <v>123000000000040</v>
       </c>
       <c r="D46" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G46">
-        <v>50501</v>
+        <v>90222</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P2B Jawa Bali APB Jawa Tengah &amp; DIY'::varchar, 'Jl.Jendral Sudirman KM 23, Ungaran. Komplek PLN Gedung A Ungaran'::varchar, null::bigint, '50501'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan XIII'::varchar, 'Jl. Letjend Hertasning, Panakkukang Makasar'::varchar, null::bigint, '90222'::varchar); </v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="str">
+      <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Pelayanan Listrik Nasional (PLN)</v>
       </c>
@@ -8164,17 +8171,20 @@
         <v>123000000000040</v>
       </c>
       <c r="D47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>279</v>
+        <v>498</v>
+      </c>
+      <c r="G47">
+        <v>50501</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan II'::varchar, 'JL. Dr. Cipto No. 12 Medan'::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'P2B Jawa Bali APB Jawa Tengah &amp; DIY'::varchar, 'Jl.Jendral Sudirman KM 23, Ungaran. Komplek PLN Gedung A Ungaran'::varchar, null::bigint, '50501'::varchar); </v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -8187,20 +8197,17 @@
         <v>123000000000040</v>
       </c>
       <c r="D48" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="G48">
-        <v>11420</v>
+        <v>279</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Interkoneksi Sumatera Jawa'::varchar, 'Jl. Aipda K.S. Tubun I/2 Lantai 3 Petamburan - Jakarta Barat'::varchar, null::bigint, '11420'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan II'::varchar, 'JL. Dr. Cipto No. 12 Medan'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -8213,17 +8220,20 @@
         <v>123000000000040</v>
       </c>
       <c r="D49" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>291</v>
+        <v>505</v>
+      </c>
+      <c r="G49">
+        <v>11420</v>
       </c>
       <c r="H49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan X'::varchar, 'Jl. MT Haryono No. 384 Balikpapan 76114 Kalimantan Timur'::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan Interkoneksi Sumatera Jawa'::varchar, 'Jl. Aipda K.S. Tubun I/2 Lantai 3 Petamburan - Jakarta Barat'::varchar, null::bigint, '11420'::varchar); </v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -8236,180 +8246,180 @@
         <v>123000000000040</v>
       </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="G50">
-        <v>55232</v>
+        <v>291</v>
       </c>
       <c r="H50" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan JBT II '::varchar, 'Jl. Margo Utomo(d/h P. Mangkubumi) No. 16 Yogyakarta'::varchar, null::bigint, '55232'::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan X'::varchar, 'Jl. MT Haryono No. 384 Balikpapan 76114 Kalimantan Timur'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>Pelayanan Listrik Nasional (PLN)</v>
+      </c>
+      <c r="C51" s="4">
+        <f>VLOOKUP(B51, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000040</v>
+      </c>
+      <c r="D51" t="s">
+        <v>518</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G51">
+        <v>55232</v>
+      </c>
+      <c r="H51" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000040::bigint, 'Unit Induk Pembangunan JBT II '::varchar, 'Jl. Margo Utomo(d/h P. Mangkubumi) No. 16 Yogyakarta'::varchar, null::bigint, '55232'::varchar); </v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
         <f>'SEED - TblInstitution'!B42</f>
         <v>Protelindo</v>
       </c>
-      <c r="C51" s="4">
-        <f>VLOOKUP(B51, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C52" s="4">
+        <f>VLOOKUP(B52, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000041</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>10310</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>302</v>
       </c>
-      <c r="J51" s="3" t="str">
+      <c r="J52" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000041::bigint, null::varchar, 'Menara BCA, 55th Floor Jl. M.H. Thamrin No. 1 Jakarta'::varchar, null::bigint, '10310'::varchar); </v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
         <f>'SEED - TblInstitution'!B43</f>
         <v>Ramayana Lestari Sentosa</v>
       </c>
-      <c r="C52" s="4">
-        <f>VLOOKUP(B52, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C53" s="4">
+        <f>VLOOKUP(B53, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000042</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" t="s">
         <v>311</v>
       </c>
-      <c r="J52" s="3" t="str">
+      <c r="J53" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000042::bigint, null::varchar, 'Jl. KH Wahid Hasyim 220 A-B, Kampung Bali - Tanah Abang Jakarta '::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="str">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="str">
         <f>'SEED - TblInstitution'!B44</f>
         <v>Rekadaya Elektrika</v>
       </c>
-      <c r="C53" s="4">
-        <f>VLOOKUP(B53, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C54" s="4">
+        <f>VLOOKUP(B54, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000043</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>10230</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>317</v>
       </c>
-      <c r="J53" s="3" t="str">
+      <c r="J54" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000043::bigint, null::varchar, 'Gedung Bank Mandiri Lt. 6 Jl. Tanjung Karang No.3-4A Jakarta Pusat'::varchar, null::bigint, '10230'::varchar); </v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
         <f>'SEED - TblInstitution'!B45</f>
         <v>Sejahtera Mandiri</v>
       </c>
-      <c r="C54" s="4">
-        <f>VLOOKUP(B54, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C55" s="4">
+        <f>VLOOKUP(B55, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000044</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="J54" s="3" t="str">
+      <c r="J55" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000044::bigint, null::varchar, 'Jl. Batangan - Jaken Km. 04 No. 199 Kuniran Kec. Batangan Kab. Pati jawa Tengah'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="str">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
         <f>'SEED - TblInstitution'!B46</f>
         <v>Sigindo Kemas</v>
       </c>
-      <c r="C55" s="4">
-        <f>VLOOKUP(B55, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C56" s="4">
+        <f>VLOOKUP(B56, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000045</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>60244</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>339</v>
       </c>
-      <c r="J55" s="3" t="str">
+      <c r="J56" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000045::bigint, null::varchar, 'Kompleks Pertokoan Mangga Dua Blok A7 No 6-7 Jl. Jagir Wonokromo 100, Surabaya'::varchar, null::bigint, '60244'::varchar); </v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="str">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="str">
         <f>'SEED - TblInstitution'!B47</f>
         <v>Smart Telecom</v>
       </c>
-      <c r="C56" s="4">
-        <f>VLOOKUP(B56, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000046</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="G56">
-        <v>15116</v>
-      </c>
-      <c r="H56" t="s">
-        <v>345</v>
-      </c>
-      <c r="J56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000046::bigint, null::varchar, 'Jl. Agus Salim No.45 Menteng, Kebon Sirih, Jakarta Pusat'::varchar, null::bigint, '15116'::varchar); </v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="str">
-        <f>'SEED - TblInstitution'!B48</f>
-        <v>Telekomunikasi Indonesia (Telkom)</v>
-      </c>
       <c r="C57" s="4">
         <f>VLOOKUP(B57, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
-        <v>123000000000047</v>
-      </c>
-      <c r="D57" t="s">
-        <v>510</v>
+        <v>123000000000046</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>354</v>
+        <v>509</v>
+      </c>
+      <c r="G57">
+        <v>15116</v>
       </c>
       <c r="H57" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Bandung'::varchar, 'JL. Japati No. 1 Bandung'::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000046::bigint, null::varchar, 'Jl. Agus Salim No.45 Menteng, Kebon Sirih, Jakarta Pusat'::varchar, null::bigint, '15116'::varchar); </v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="str">
-        <f>B57</f>
+      <c r="B58" s="3" t="str">
+        <f>'SEED - TblInstitution'!B48</f>
         <v>Telekomunikasi Indonesia (Telkom)</v>
       </c>
       <c r="C58" s="4">
@@ -8417,208 +8427,231 @@
         <v>123000000000047</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>510</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H58" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="J58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Jakarta'::varchar, 'Di Jakarta'::varchar, null::bigint, null::varchar); </v>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Bandung'::varchar, 'JL. Japati No. 1 Bandung'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
+        <f>B58</f>
+        <v>Telekomunikasi Indonesia (Telkom)</v>
+      </c>
+      <c r="C59" s="4">
+        <f>VLOOKUP(B59, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+        <v>123000000000047</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="H59" t="s">
+        <v>360</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000047::bigint, 'Jakarta'::varchar, 'Di Jakarta'::varchar, null::bigint, null::varchar); </v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
         <f>'SEED - TblInstitution'!B49</f>
         <v>Telekomunikasi Selular (Telkomsel)</v>
       </c>
-      <c r="C59" s="4">
-        <f>VLOOKUP(B59, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C60" s="4">
+        <f>VLOOKUP(B60, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000048</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>12710</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>365</v>
       </c>
-      <c r="J59" s="3" t="str">
+      <c r="J60" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000048::bigint, null::varchar, 'Gedung TELKOM Landmark Tower Menara 1 LT. 1-20, JL. Jend. Gatot Subroto Kav. 52 Kuningan Barat Mampang Prapatan Jakarta Selatan DKI Jakarta'::varchar, null::bigint, '12710'::varchar); </v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="str">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
         <f>'SEED - TblInstitution'!B50</f>
         <v>Telkom Akses</v>
       </c>
-      <c r="C60" s="4">
-        <f>VLOOKUP(B60, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C61" s="4">
+        <f>VLOOKUP(B61, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000049</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>11440</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>371</v>
       </c>
-      <c r="J60" s="3" t="str">
+      <c r="J61" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000049::bigint, null::varchar, 'Gedung Telkom Jakarta Barat cq Unit Finance Operation. Jl. S.Parman Kav.8 Jakarta Barat'::varchar, null::bigint, '11440'::varchar); </v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="str">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
         <f>'SEED - TblInstitution'!B51</f>
         <v>Tosan Permai Lestari</v>
       </c>
-      <c r="C61" s="4">
-        <f>VLOOKUP(B61, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C62" s="4">
+        <f>VLOOKUP(B62, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000050</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>90174</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
         <v>384</v>
       </c>
-      <c r="J61" s="3" t="str">
+      <c r="J62" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000050::bigint, null::varchar, 'JL. HOS Cokroaminoto 38 lt V Makassar'::varchar, null::bigint, '90174'::varchar); </v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="str">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
         <f>'SEED - TblInstitution'!B52</f>
         <v>Tower Capital Indonesia</v>
       </c>
-      <c r="C62" s="4">
-        <f>VLOOKUP(B62, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C63" s="4">
+        <f>VLOOKUP(B63, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000051</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>12150</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
         <v>390</v>
       </c>
-      <c r="J62" s="3" t="str">
+      <c r="J63" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000051::bigint, null::varchar, 'Duta Mas Fatmawati Blok B1 No.20 Jl.R.S Fatmawati 39 Jakarta'::varchar, null::bigint, '12150'::varchar); </v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="str">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
         <f>'SEED - TblInstitution'!B53</f>
         <v>Waskita Karya</v>
       </c>
-      <c r="C63" s="4">
-        <f>VLOOKUP(B63, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C64" s="4">
+        <f>VLOOKUP(B64, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000052</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>395</v>
       </c>
-      <c r="J63" s="3" t="str">
+      <c r="J64" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000052::bigint, null::varchar, 'Jl. M. T. Haryono Kav. No. 10 Cawang Jakarta Timur'::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="str">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
         <f>'SEED - TblInstitution'!B54</f>
         <v>Widodo Karya Sejahtera</v>
       </c>
-      <c r="C64" s="4">
-        <f>VLOOKUP(B64, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C65" s="4">
+        <f>VLOOKUP(B65, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000053</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
         <v>401</v>
       </c>
-      <c r="J64" s="3" t="str">
+      <c r="J65" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000053::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="str">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
         <f>'SEED - TblInstitution'!B55</f>
         <v>XL Axiata</v>
       </c>
-      <c r="C65" s="4">
-        <f>VLOOKUP(B65, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C66" s="4">
+        <f>VLOOKUP(B66, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000054</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>12950</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>407</v>
       </c>
-      <c r="J65" s="3" t="str">
+      <c r="J66" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000054::bigint, null::varchar, 'XL Axiata Tower Jl. H.R. Rasuna Said X5 Kav.11-12 Kuningan Timur, Setiabudi Jakarta Selatan'::varchar, null::bigint, '12950'::varchar); </v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="str">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
         <f>'SEED - TblInstitution'!B56</f>
         <v>XL Mitrayasa</v>
       </c>
-      <c r="C66" s="4">
-        <f>VLOOKUP(B66, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C67" s="4">
+        <f>VLOOKUP(B67, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000055</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>414</v>
       </c>
-      <c r="J66" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="J67" s="3" t="str">
+        <f t="shared" ref="J67:J68" si="2">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C67, "::bigint, ", IF(EXACT(D67, ""), "null", "'"&amp;D67&amp;"'"), "::varchar, ", IF(EXACT(E67, ""), "null", "'"&amp;E67&amp;"'"), "::varchar, ", IF(EXACT(F67, ""), "null", F67),"::bigint, ", IF(EXACT(G67, ""), "null", "'"&amp;G67&amp;"'"), "::varchar); ")</f>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000055::bigint, null::varchar, null::varchar, null::bigint, null::varchar); </v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="str">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
         <f>'SEED - TblInstitution'!B57</f>
         <v>ZTE Indonesia</v>
       </c>
-      <c r="C67" s="4">
-        <f>VLOOKUP(B67, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
+      <c r="C68" s="4">
+        <f>VLOOKUP(B68, 'SEED - TblInstitution'!$H$2:$I$57, 2,)</f>
         <v>123000000000056</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>12950</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H68" t="s">
         <v>416</v>
       </c>
-      <c r="J67" s="3" t="str">
-        <f t="shared" ref="J67" si="2">CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblInstitutionBranch_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C67, "::bigint, ", IF(EXACT(D67, ""), "null", "'"&amp;D67&amp;"'"), "::varchar, ", IF(EXACT(E67, ""), "null", "'"&amp;E67&amp;"'"), "::varchar, ", IF(EXACT(F67, ""), "null", F67),"::bigint, ", IF(EXACT(G67, ""), "null", "'"&amp;G67&amp;"'"), "::varchar); ")</f>
+      <c r="J68" s="3" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">PERFORM "SchData-OLTP-Master"."Func_TblInstitutionBranch_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 123000000000056::bigint, null::varchar, 'GD THE EAST BUILDING LT.26-27 JL. Lingkar Mega Kuningan Blok E3.2 No.1 Setiabudi Jakarta Selatan DKI Jakarta Raya'::varchar, null::bigint, '12950'::varchar); </v>
       </c>
     </row>
@@ -8632,7 +8665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
